--- a/Documentation/EEOB563_Final_Project_Scores_Reference.xlsx
+++ b/Documentation/EEOB563_Final_Project_Scores_Reference.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28780" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26480" windowHeight="17480" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="389">
   <si>
     <t>Physiological Traits</t>
   </si>
@@ -1178,6 +1179,15 @@
   </si>
   <si>
     <t>Xenomorphs_OG</t>
+  </si>
+  <si>
+    <t>Table 1. List of physiological character traits and numerically-coded associated states used to score the character-state matrix. The scores of the matrix were used as sequence alignments for phylogenetic inference.</t>
+  </si>
+  <si>
+    <t>Table 2. List of behavioral character traits and numerically-coded associated states used to score the character-state matrix. The scores of the matrix were used as sequence alignments for phylogenetic inference.</t>
+  </si>
+  <si>
+    <t>Table 3. List of archetypal character traits and numerically-coded associated states used to score the character-state matrix. The scores of the matrix were used as sequence alignments for phylogenetic inference.</t>
   </si>
 </sst>
 </file>
@@ -1238,7 +1248,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -1464,8 +1474,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="113">
+  <cellStyleXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1579,8 +1600,28 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1592,21 +1633,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1621,9 +1647,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1645,28 +1668,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1674,8 +1682,83 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="113">
+  <cellStyles count="133">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1732,6 +1815,16 @@
     <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1788,6 +1881,16 @@
     <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2119,7 +2222,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+    <sheetView topLeftCell="A48" workbookViewId="0">
       <selection activeCell="G82" sqref="G82"/>
     </sheetView>
   </sheetViews>
@@ -4191,346 +4294,346 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15" thickBot="1">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="38" t="s">
         <v>317</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="38" t="s">
         <v>318</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="38" t="s">
         <v>319</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="14"/>
-    </row>
-    <row r="2" spans="1:21" s="20" customFormat="1" ht="15" thickBot="1">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="16" t="s">
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="41"/>
+      <c r="T1" s="41"/>
+      <c r="U1" s="42"/>
+    </row>
+    <row r="2" spans="1:21" s="15" customFormat="1" ht="15" thickBot="1">
+      <c r="A2" s="39"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="12" t="s">
         <v>320</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="H2" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="I2" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="J2" s="17" t="s">
+      <c r="J2" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="K2" s="17" t="s">
+      <c r="K2" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="L2" s="17" t="s">
+      <c r="L2" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="M2" s="17" t="s">
+      <c r="M2" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="N2" s="17" t="s">
+      <c r="N2" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="O2" s="17" t="s">
+      <c r="O2" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="P2" s="17" t="s">
+      <c r="P2" s="12" t="s">
         <v>281</v>
       </c>
-      <c r="Q2" s="17" t="s">
+      <c r="Q2" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="R2" s="17" t="s">
+      <c r="R2" s="12" t="s">
         <v>282</v>
       </c>
-      <c r="S2" s="17" t="s">
+      <c r="S2" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="T2" s="18" t="s">
+      <c r="T2" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="U2" s="19" t="s">
+      <c r="U2" s="14" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="3" spans="1:21">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="33" t="s">
         <v>322</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="16" t="s">
         <v>323</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="16" t="s">
         <v>324</v>
       </c>
-      <c r="D3" s="23">
-        <v>1</v>
-      </c>
-      <c r="E3" s="24">
-        <v>3</v>
-      </c>
-      <c r="F3" s="24">
-        <v>1</v>
-      </c>
-      <c r="G3" s="24">
-        <v>3</v>
-      </c>
-      <c r="H3" s="24">
-        <v>1</v>
-      </c>
-      <c r="I3" s="24">
-        <v>2</v>
-      </c>
-      <c r="J3" s="24">
-        <v>2</v>
-      </c>
-      <c r="K3" s="24">
+      <c r="D3" s="17">
+        <v>1</v>
+      </c>
+      <c r="E3" s="18">
+        <v>3</v>
+      </c>
+      <c r="F3" s="18">
+        <v>1</v>
+      </c>
+      <c r="G3" s="18">
+        <v>3</v>
+      </c>
+      <c r="H3" s="18">
+        <v>1</v>
+      </c>
+      <c r="I3" s="18">
+        <v>2</v>
+      </c>
+      <c r="J3" s="18">
+        <v>2</v>
+      </c>
+      <c r="K3" s="18">
         <v>4</v>
       </c>
-      <c r="L3" s="24">
-        <v>1</v>
-      </c>
-      <c r="M3" s="24">
-        <v>3</v>
-      </c>
-      <c r="N3" s="24">
-        <v>1</v>
-      </c>
-      <c r="O3" s="24">
-        <v>1</v>
-      </c>
-      <c r="P3" s="24">
-        <v>2</v>
-      </c>
-      <c r="Q3" s="24">
-        <v>2</v>
-      </c>
-      <c r="R3" s="24">
-        <v>1</v>
-      </c>
-      <c r="S3" s="24">
-        <v>2</v>
-      </c>
-      <c r="T3" s="24">
-        <v>2</v>
-      </c>
-      <c r="U3" s="26">
+      <c r="L3" s="18">
+        <v>1</v>
+      </c>
+      <c r="M3" s="18">
+        <v>3</v>
+      </c>
+      <c r="N3" s="18">
+        <v>1</v>
+      </c>
+      <c r="O3" s="18">
+        <v>1</v>
+      </c>
+      <c r="P3" s="18">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="18">
+        <v>2</v>
+      </c>
+      <c r="R3" s="18">
+        <v>1</v>
+      </c>
+      <c r="S3" s="18">
+        <v>2</v>
+      </c>
+      <c r="T3" s="18">
+        <v>2</v>
+      </c>
+      <c r="U3" s="20">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:21">
-      <c r="A4" s="21"/>
-      <c r="B4" s="27" t="s">
+      <c r="A4" s="33"/>
+      <c r="B4" s="21" t="s">
         <v>325</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="21" t="s">
         <v>326</v>
       </c>
-      <c r="D4" s="28">
-        <v>1</v>
-      </c>
-      <c r="E4" s="25">
-        <v>1</v>
-      </c>
-      <c r="F4" s="25">
+      <c r="D4" s="22">
+        <v>1</v>
+      </c>
+      <c r="E4" s="19">
+        <v>1</v>
+      </c>
+      <c r="F4" s="19">
         <v>4</v>
       </c>
-      <c r="G4" s="25">
-        <v>1</v>
-      </c>
-      <c r="H4" s="25">
+      <c r="G4" s="19">
+        <v>1</v>
+      </c>
+      <c r="H4" s="19">
         <v>4</v>
       </c>
-      <c r="I4" s="25">
-        <v>3</v>
-      </c>
-      <c r="J4" s="25">
-        <v>3</v>
-      </c>
-      <c r="K4" s="25">
-        <v>2</v>
-      </c>
-      <c r="L4" s="25">
-        <v>2</v>
-      </c>
-      <c r="M4" s="25">
+      <c r="I4" s="19">
+        <v>3</v>
+      </c>
+      <c r="J4" s="19">
+        <v>3</v>
+      </c>
+      <c r="K4" s="19">
+        <v>2</v>
+      </c>
+      <c r="L4" s="19">
+        <v>2</v>
+      </c>
+      <c r="M4" s="19">
         <v>4</v>
       </c>
-      <c r="N4" s="25">
-        <v>3</v>
-      </c>
-      <c r="O4" s="25">
-        <v>1</v>
-      </c>
-      <c r="P4" s="25">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="25">
-        <v>1</v>
-      </c>
-      <c r="R4" s="25">
-        <v>1</v>
-      </c>
-      <c r="S4" s="25">
-        <v>3</v>
-      </c>
-      <c r="T4" s="25">
-        <v>1</v>
-      </c>
-      <c r="U4" s="29">
+      <c r="N4" s="19">
+        <v>3</v>
+      </c>
+      <c r="O4" s="19">
+        <v>1</v>
+      </c>
+      <c r="P4" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="19">
+        <v>1</v>
+      </c>
+      <c r="R4" s="19">
+        <v>1</v>
+      </c>
+      <c r="S4" s="19">
+        <v>3</v>
+      </c>
+      <c r="T4" s="19">
+        <v>1</v>
+      </c>
+      <c r="U4" s="23">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:21">
-      <c r="A5" s="21"/>
-      <c r="B5" s="27" t="s">
+      <c r="A5" s="33"/>
+      <c r="B5" s="21" t="s">
         <v>327</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="21" t="s">
         <v>328</v>
       </c>
-      <c r="D5" s="28">
-        <v>1</v>
-      </c>
-      <c r="E5" s="25">
-        <v>2</v>
-      </c>
-      <c r="F5" s="25">
-        <v>3</v>
-      </c>
-      <c r="G5" s="25">
-        <v>2</v>
-      </c>
-      <c r="H5" s="25">
-        <v>2</v>
-      </c>
-      <c r="I5" s="25">
-        <v>3</v>
-      </c>
-      <c r="J5" s="25">
-        <v>3</v>
-      </c>
-      <c r="K5" s="25">
-        <v>1</v>
-      </c>
-      <c r="L5" s="25">
-        <v>2</v>
-      </c>
-      <c r="M5" s="25">
-        <v>1</v>
-      </c>
-      <c r="N5" s="25">
-        <v>1</v>
-      </c>
-      <c r="O5" s="25">
-        <v>1</v>
-      </c>
-      <c r="P5" s="25">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="25">
-        <v>3</v>
-      </c>
-      <c r="R5" s="25">
-        <v>1</v>
-      </c>
-      <c r="S5" s="25">
-        <v>3</v>
-      </c>
-      <c r="T5" s="25">
-        <v>3</v>
-      </c>
-      <c r="U5" s="29">
+      <c r="D5" s="22">
+        <v>1</v>
+      </c>
+      <c r="E5" s="19">
+        <v>2</v>
+      </c>
+      <c r="F5" s="19">
+        <v>3</v>
+      </c>
+      <c r="G5" s="19">
+        <v>2</v>
+      </c>
+      <c r="H5" s="19">
+        <v>2</v>
+      </c>
+      <c r="I5" s="19">
+        <v>3</v>
+      </c>
+      <c r="J5" s="19">
+        <v>3</v>
+      </c>
+      <c r="K5" s="19">
+        <v>1</v>
+      </c>
+      <c r="L5" s="19">
+        <v>2</v>
+      </c>
+      <c r="M5" s="19">
+        <v>1</v>
+      </c>
+      <c r="N5" s="19">
+        <v>1</v>
+      </c>
+      <c r="O5" s="19">
+        <v>1</v>
+      </c>
+      <c r="P5" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="19">
+        <v>3</v>
+      </c>
+      <c r="R5" s="19">
+        <v>1</v>
+      </c>
+      <c r="S5" s="19">
+        <v>3</v>
+      </c>
+      <c r="T5" s="19">
+        <v>3</v>
+      </c>
+      <c r="U5" s="23">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="15" thickBot="1">
-      <c r="A6" s="30"/>
-      <c r="B6" s="31" t="s">
+      <c r="A6" s="37"/>
+      <c r="B6" s="24" t="s">
         <v>329</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="24" t="s">
         <v>330</v>
       </c>
-      <c r="D6" s="28">
-        <v>3</v>
-      </c>
-      <c r="E6" s="25">
-        <v>2</v>
-      </c>
-      <c r="F6" s="25">
-        <v>2</v>
-      </c>
-      <c r="G6" s="25">
+      <c r="D6" s="22">
+        <v>3</v>
+      </c>
+      <c r="E6" s="19">
+        <v>2</v>
+      </c>
+      <c r="F6" s="19">
+        <v>2</v>
+      </c>
+      <c r="G6" s="19">
         <v>4</v>
       </c>
-      <c r="H6" s="25">
-        <v>1</v>
-      </c>
-      <c r="I6" s="25">
-        <v>1</v>
-      </c>
-      <c r="J6" s="25">
-        <v>1</v>
-      </c>
-      <c r="K6" s="25">
+      <c r="H6" s="19">
+        <v>1</v>
+      </c>
+      <c r="I6" s="19">
+        <v>1</v>
+      </c>
+      <c r="J6" s="19">
+        <v>1</v>
+      </c>
+      <c r="K6" s="19">
         <v>4</v>
       </c>
-      <c r="L6" s="25">
+      <c r="L6" s="19">
         <v>4</v>
       </c>
-      <c r="M6" s="25">
-        <v>1</v>
-      </c>
-      <c r="N6" s="25">
-        <v>1</v>
-      </c>
-      <c r="O6" s="25">
-        <v>1</v>
-      </c>
-      <c r="P6" s="25">
-        <v>2</v>
-      </c>
-      <c r="Q6" s="25">
-        <v>1</v>
-      </c>
-      <c r="R6" s="25">
-        <v>2</v>
-      </c>
-      <c r="S6" s="25">
-        <v>1</v>
-      </c>
-      <c r="T6" s="25">
-        <v>2</v>
-      </c>
-      <c r="U6" s="29">
+      <c r="M6" s="19">
+        <v>1</v>
+      </c>
+      <c r="N6" s="19">
+        <v>1</v>
+      </c>
+      <c r="O6" s="19">
+        <v>1</v>
+      </c>
+      <c r="P6" s="19">
+        <v>2</v>
+      </c>
+      <c r="Q6" s="19">
+        <v>1</v>
+      </c>
+      <c r="R6" s="19">
+        <v>2</v>
+      </c>
+      <c r="S6" s="19">
+        <v>1</v>
+      </c>
+      <c r="T6" s="19">
+        <v>2</v>
+      </c>
+      <c r="U6" s="23">
         <v>1</v>
       </c>
     </row>
@@ -4538,316 +4641,316 @@
       <c r="A7" s="32" t="s">
         <v>331</v>
       </c>
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="25" t="s">
         <v>323</v>
       </c>
-      <c r="C7" s="33" t="s">
+      <c r="C7" s="25" t="s">
         <v>332</v>
       </c>
-      <c r="D7" s="28">
-        <v>1</v>
-      </c>
-      <c r="E7" s="25">
-        <v>3</v>
-      </c>
-      <c r="F7" s="25">
-        <v>1</v>
-      </c>
-      <c r="G7" s="25">
-        <v>3</v>
-      </c>
-      <c r="H7" s="25">
-        <v>2</v>
-      </c>
-      <c r="I7" s="25">
-        <v>3</v>
-      </c>
-      <c r="J7" s="25">
-        <v>2</v>
-      </c>
-      <c r="K7" s="25">
-        <v>3</v>
-      </c>
-      <c r="L7" s="25">
-        <v>1</v>
-      </c>
-      <c r="M7" s="25">
-        <v>2</v>
-      </c>
-      <c r="N7" s="25">
-        <v>3</v>
-      </c>
-      <c r="O7" s="25">
-        <v>2</v>
-      </c>
-      <c r="P7" s="25">
-        <v>2</v>
-      </c>
-      <c r="Q7" s="25">
-        <v>2</v>
-      </c>
-      <c r="R7" s="25">
-        <v>1</v>
-      </c>
-      <c r="S7" s="25">
-        <v>2</v>
-      </c>
-      <c r="T7" s="25">
-        <v>2</v>
-      </c>
-      <c r="U7" s="29">
+      <c r="D7" s="22">
+        <v>1</v>
+      </c>
+      <c r="E7" s="19">
+        <v>3</v>
+      </c>
+      <c r="F7" s="19">
+        <v>1</v>
+      </c>
+      <c r="G7" s="19">
+        <v>3</v>
+      </c>
+      <c r="H7" s="19">
+        <v>2</v>
+      </c>
+      <c r="I7" s="19">
+        <v>3</v>
+      </c>
+      <c r="J7" s="19">
+        <v>2</v>
+      </c>
+      <c r="K7" s="19">
+        <v>3</v>
+      </c>
+      <c r="L7" s="19">
+        <v>1</v>
+      </c>
+      <c r="M7" s="19">
+        <v>2</v>
+      </c>
+      <c r="N7" s="19">
+        <v>3</v>
+      </c>
+      <c r="O7" s="19">
+        <v>2</v>
+      </c>
+      <c r="P7" s="19">
+        <v>2</v>
+      </c>
+      <c r="Q7" s="19">
+        <v>2</v>
+      </c>
+      <c r="R7" s="19">
+        <v>1</v>
+      </c>
+      <c r="S7" s="19">
+        <v>2</v>
+      </c>
+      <c r="T7" s="19">
+        <v>2</v>
+      </c>
+      <c r="U7" s="23">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:21">
-      <c r="A8" s="21"/>
-      <c r="B8" s="27" t="s">
+      <c r="A8" s="33"/>
+      <c r="B8" s="21" t="s">
         <v>325</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="21" t="s">
         <v>333</v>
       </c>
-      <c r="D8" s="28">
-        <v>1</v>
-      </c>
-      <c r="E8" s="25">
-        <v>1</v>
-      </c>
-      <c r="F8" s="25">
-        <v>3</v>
-      </c>
-      <c r="G8" s="25">
-        <v>2</v>
-      </c>
-      <c r="H8" s="25">
-        <v>3</v>
-      </c>
-      <c r="I8" s="25">
-        <v>2</v>
-      </c>
-      <c r="J8" s="25">
-        <v>3</v>
-      </c>
-      <c r="K8" s="25">
-        <v>3</v>
-      </c>
-      <c r="L8" s="25">
-        <v>1</v>
-      </c>
-      <c r="M8" s="25">
-        <v>2</v>
-      </c>
-      <c r="N8" s="25">
-        <v>3</v>
-      </c>
-      <c r="O8" s="25">
-        <v>1</v>
-      </c>
-      <c r="P8" s="25">
-        <v>2</v>
-      </c>
-      <c r="Q8" s="25">
-        <v>2</v>
-      </c>
-      <c r="R8" s="25">
-        <v>1</v>
-      </c>
-      <c r="S8" s="25">
-        <v>2</v>
-      </c>
-      <c r="T8" s="25">
-        <v>1</v>
-      </c>
-      <c r="U8" s="29">
+      <c r="D8" s="22">
+        <v>1</v>
+      </c>
+      <c r="E8" s="19">
+        <v>1</v>
+      </c>
+      <c r="F8" s="19">
+        <v>3</v>
+      </c>
+      <c r="G8" s="19">
+        <v>2</v>
+      </c>
+      <c r="H8" s="19">
+        <v>3</v>
+      </c>
+      <c r="I8" s="19">
+        <v>2</v>
+      </c>
+      <c r="J8" s="19">
+        <v>3</v>
+      </c>
+      <c r="K8" s="19">
+        <v>3</v>
+      </c>
+      <c r="L8" s="19">
+        <v>1</v>
+      </c>
+      <c r="M8" s="19">
+        <v>2</v>
+      </c>
+      <c r="N8" s="19">
+        <v>3</v>
+      </c>
+      <c r="O8" s="19">
+        <v>1</v>
+      </c>
+      <c r="P8" s="19">
+        <v>2</v>
+      </c>
+      <c r="Q8" s="19">
+        <v>2</v>
+      </c>
+      <c r="R8" s="19">
+        <v>1</v>
+      </c>
+      <c r="S8" s="19">
+        <v>2</v>
+      </c>
+      <c r="T8" s="19">
+        <v>1</v>
+      </c>
+      <c r="U8" s="23">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:21">
-      <c r="A9" s="21"/>
-      <c r="B9" s="27" t="s">
+      <c r="A9" s="33"/>
+      <c r="B9" s="21" t="s">
         <v>334</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="21" t="s">
         <v>335</v>
       </c>
-      <c r="D9" s="28">
-        <v>3</v>
-      </c>
-      <c r="E9" s="25">
-        <v>1</v>
-      </c>
-      <c r="F9" s="25">
-        <v>3</v>
-      </c>
-      <c r="G9" s="25">
-        <v>2</v>
-      </c>
-      <c r="H9" s="25">
-        <v>2</v>
-      </c>
-      <c r="I9" s="25">
-        <v>3</v>
-      </c>
-      <c r="J9" s="25">
-        <v>3</v>
-      </c>
-      <c r="K9" s="25">
-        <v>3</v>
-      </c>
-      <c r="L9" s="25">
+      <c r="D9" s="22">
+        <v>3</v>
+      </c>
+      <c r="E9" s="19">
+        <v>1</v>
+      </c>
+      <c r="F9" s="19">
+        <v>3</v>
+      </c>
+      <c r="G9" s="19">
+        <v>2</v>
+      </c>
+      <c r="H9" s="19">
+        <v>2</v>
+      </c>
+      <c r="I9" s="19">
+        <v>3</v>
+      </c>
+      <c r="J9" s="19">
+        <v>3</v>
+      </c>
+      <c r="K9" s="19">
+        <v>3</v>
+      </c>
+      <c r="L9" s="19">
         <v>4</v>
       </c>
-      <c r="M9" s="25">
-        <v>2</v>
-      </c>
-      <c r="N9" s="25">
-        <v>3</v>
-      </c>
-      <c r="O9" s="25">
-        <v>1</v>
-      </c>
-      <c r="P9" s="25">
-        <v>2</v>
-      </c>
-      <c r="Q9" s="25">
-        <v>3</v>
-      </c>
-      <c r="R9" s="25">
-        <v>3</v>
-      </c>
-      <c r="S9" s="25">
-        <v>3</v>
-      </c>
-      <c r="T9" s="25">
-        <v>2</v>
-      </c>
-      <c r="U9" s="29">
+      <c r="M9" s="19">
+        <v>2</v>
+      </c>
+      <c r="N9" s="19">
+        <v>3</v>
+      </c>
+      <c r="O9" s="19">
+        <v>1</v>
+      </c>
+      <c r="P9" s="19">
+        <v>2</v>
+      </c>
+      <c r="Q9" s="19">
+        <v>3</v>
+      </c>
+      <c r="R9" s="19">
+        <v>3</v>
+      </c>
+      <c r="S9" s="19">
+        <v>3</v>
+      </c>
+      <c r="T9" s="19">
+        <v>2</v>
+      </c>
+      <c r="U9" s="23">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:21">
-      <c r="A10" s="21"/>
-      <c r="B10" s="27" t="s">
+      <c r="A10" s="33"/>
+      <c r="B10" s="21" t="s">
         <v>327</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="21" t="s">
         <v>336</v>
       </c>
-      <c r="D10" s="28">
-        <v>1</v>
-      </c>
-      <c r="E10" s="25">
-        <v>1</v>
-      </c>
-      <c r="F10" s="25">
-        <v>3</v>
-      </c>
-      <c r="G10" s="25">
-        <v>2</v>
-      </c>
-      <c r="H10" s="25">
-        <v>2</v>
-      </c>
-      <c r="I10" s="25">
-        <v>3</v>
-      </c>
-      <c r="J10" s="25">
-        <v>3</v>
-      </c>
-      <c r="K10" s="25">
-        <v>2</v>
-      </c>
-      <c r="L10" s="25">
-        <v>1</v>
-      </c>
-      <c r="M10" s="25">
-        <v>2</v>
-      </c>
-      <c r="N10" s="25">
-        <v>3</v>
-      </c>
-      <c r="O10" s="25">
-        <v>1</v>
-      </c>
-      <c r="P10" s="25">
-        <v>2</v>
-      </c>
-      <c r="Q10" s="25">
-        <v>3</v>
-      </c>
-      <c r="R10" s="25">
-        <v>1</v>
-      </c>
-      <c r="S10" s="25">
-        <v>3</v>
-      </c>
-      <c r="T10" s="25">
-        <v>3</v>
-      </c>
-      <c r="U10" s="29">
+      <c r="D10" s="22">
+        <v>1</v>
+      </c>
+      <c r="E10" s="19">
+        <v>1</v>
+      </c>
+      <c r="F10" s="19">
+        <v>3</v>
+      </c>
+      <c r="G10" s="19">
+        <v>2</v>
+      </c>
+      <c r="H10" s="19">
+        <v>2</v>
+      </c>
+      <c r="I10" s="19">
+        <v>3</v>
+      </c>
+      <c r="J10" s="19">
+        <v>3</v>
+      </c>
+      <c r="K10" s="19">
+        <v>2</v>
+      </c>
+      <c r="L10" s="19">
+        <v>1</v>
+      </c>
+      <c r="M10" s="19">
+        <v>2</v>
+      </c>
+      <c r="N10" s="19">
+        <v>3</v>
+      </c>
+      <c r="O10" s="19">
+        <v>1</v>
+      </c>
+      <c r="P10" s="19">
+        <v>2</v>
+      </c>
+      <c r="Q10" s="19">
+        <v>3</v>
+      </c>
+      <c r="R10" s="19">
+        <v>1</v>
+      </c>
+      <c r="S10" s="19">
+        <v>3</v>
+      </c>
+      <c r="T10" s="19">
+        <v>3</v>
+      </c>
+      <c r="U10" s="23">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="15" thickBot="1">
-      <c r="A11" s="30"/>
-      <c r="B11" s="31" t="s">
+      <c r="A11" s="37"/>
+      <c r="B11" s="24" t="s">
         <v>329</v>
       </c>
-      <c r="C11" s="31" t="s">
+      <c r="C11" s="24" t="s">
         <v>337</v>
       </c>
-      <c r="D11" s="28">
-        <v>3</v>
-      </c>
-      <c r="E11" s="25">
-        <v>2</v>
-      </c>
-      <c r="F11" s="25">
-        <v>2</v>
-      </c>
-      <c r="G11" s="25">
+      <c r="D11" s="22">
+        <v>3</v>
+      </c>
+      <c r="E11" s="19">
+        <v>2</v>
+      </c>
+      <c r="F11" s="19">
+        <v>2</v>
+      </c>
+      <c r="G11" s="19">
         <v>4</v>
       </c>
-      <c r="H11" s="25">
-        <v>1</v>
-      </c>
-      <c r="I11" s="25">
-        <v>1</v>
-      </c>
-      <c r="J11" s="25">
-        <v>1</v>
-      </c>
-      <c r="K11" s="25">
+      <c r="H11" s="19">
+        <v>1</v>
+      </c>
+      <c r="I11" s="19">
+        <v>1</v>
+      </c>
+      <c r="J11" s="19">
+        <v>1</v>
+      </c>
+      <c r="K11" s="19">
         <v>4</v>
       </c>
-      <c r="L11" s="25">
+      <c r="L11" s="19">
         <v>4</v>
       </c>
-      <c r="M11" s="25">
-        <v>2</v>
-      </c>
-      <c r="N11" s="25">
-        <v>1</v>
-      </c>
-      <c r="O11" s="25">
-        <v>2</v>
-      </c>
-      <c r="P11" s="25">
-        <v>2</v>
-      </c>
-      <c r="Q11" s="25">
-        <v>1</v>
-      </c>
-      <c r="R11" s="25">
-        <v>3</v>
-      </c>
-      <c r="S11" s="25">
-        <v>1</v>
-      </c>
-      <c r="T11" s="25">
-        <v>1</v>
-      </c>
-      <c r="U11" s="29">
+      <c r="M11" s="19">
+        <v>2</v>
+      </c>
+      <c r="N11" s="19">
+        <v>1</v>
+      </c>
+      <c r="O11" s="19">
+        <v>2</v>
+      </c>
+      <c r="P11" s="19">
+        <v>2</v>
+      </c>
+      <c r="Q11" s="19">
+        <v>1</v>
+      </c>
+      <c r="R11" s="19">
+        <v>3</v>
+      </c>
+      <c r="S11" s="19">
+        <v>1</v>
+      </c>
+      <c r="T11" s="19">
+        <v>1</v>
+      </c>
+      <c r="U11" s="23">
         <v>1</v>
       </c>
     </row>
@@ -4855,316 +4958,316 @@
       <c r="A12" s="32" t="s">
         <v>338</v>
       </c>
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="25" t="s">
         <v>323</v>
       </c>
-      <c r="C12" s="33" t="s">
+      <c r="C12" s="25" t="s">
         <v>339</v>
       </c>
-      <c r="D12" s="28">
-        <v>2</v>
-      </c>
-      <c r="E12" s="25">
-        <v>3</v>
-      </c>
-      <c r="F12" s="25">
-        <v>1</v>
-      </c>
-      <c r="G12" s="25">
-        <v>3</v>
-      </c>
-      <c r="H12" s="25">
-        <v>1</v>
-      </c>
-      <c r="I12" s="25">
-        <v>2</v>
-      </c>
-      <c r="J12" s="25">
-        <v>2</v>
-      </c>
-      <c r="K12" s="25">
-        <v>3</v>
-      </c>
-      <c r="L12" s="25">
-        <v>1</v>
-      </c>
-      <c r="M12" s="25">
-        <v>2</v>
-      </c>
-      <c r="N12" s="25">
-        <v>3</v>
-      </c>
-      <c r="O12" s="25">
-        <v>2</v>
-      </c>
-      <c r="P12" s="25">
-        <v>2</v>
-      </c>
-      <c r="Q12" s="25">
-        <v>2</v>
-      </c>
-      <c r="R12" s="25">
-        <v>1</v>
-      </c>
-      <c r="S12" s="25">
-        <v>2</v>
-      </c>
-      <c r="T12" s="25">
-        <v>2</v>
-      </c>
-      <c r="U12" s="29">
+      <c r="D12" s="22">
+        <v>2</v>
+      </c>
+      <c r="E12" s="19">
+        <v>3</v>
+      </c>
+      <c r="F12" s="19">
+        <v>1</v>
+      </c>
+      <c r="G12" s="19">
+        <v>3</v>
+      </c>
+      <c r="H12" s="19">
+        <v>1</v>
+      </c>
+      <c r="I12" s="19">
+        <v>2</v>
+      </c>
+      <c r="J12" s="19">
+        <v>2</v>
+      </c>
+      <c r="K12" s="19">
+        <v>3</v>
+      </c>
+      <c r="L12" s="19">
+        <v>1</v>
+      </c>
+      <c r="M12" s="19">
+        <v>2</v>
+      </c>
+      <c r="N12" s="19">
+        <v>3</v>
+      </c>
+      <c r="O12" s="19">
+        <v>2</v>
+      </c>
+      <c r="P12" s="19">
+        <v>2</v>
+      </c>
+      <c r="Q12" s="19">
+        <v>2</v>
+      </c>
+      <c r="R12" s="19">
+        <v>1</v>
+      </c>
+      <c r="S12" s="19">
+        <v>2</v>
+      </c>
+      <c r="T12" s="19">
+        <v>2</v>
+      </c>
+      <c r="U12" s="23">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:21">
-      <c r="A13" s="21"/>
-      <c r="B13" s="27" t="s">
+      <c r="A13" s="33"/>
+      <c r="B13" s="21" t="s">
         <v>340</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="C13" s="21" t="s">
         <v>341</v>
       </c>
-      <c r="D13" s="28">
-        <v>2</v>
-      </c>
-      <c r="E13" s="25">
-        <v>1</v>
-      </c>
-      <c r="F13" s="25">
-        <v>3</v>
-      </c>
-      <c r="G13" s="25">
-        <v>2</v>
-      </c>
-      <c r="H13" s="25">
-        <v>2</v>
-      </c>
-      <c r="I13" s="25">
-        <v>3</v>
-      </c>
-      <c r="J13" s="25">
-        <v>3</v>
-      </c>
-      <c r="K13" s="25">
-        <v>2</v>
-      </c>
-      <c r="L13" s="25">
-        <v>1</v>
-      </c>
-      <c r="M13" s="25">
-        <v>2</v>
-      </c>
-      <c r="N13" s="25">
-        <v>3</v>
-      </c>
-      <c r="O13" s="25">
-        <v>2</v>
-      </c>
-      <c r="P13" s="25">
-        <v>2</v>
-      </c>
-      <c r="Q13" s="25">
-        <v>2</v>
-      </c>
-      <c r="R13" s="25">
-        <v>1</v>
-      </c>
-      <c r="S13" s="25">
-        <v>3</v>
-      </c>
-      <c r="T13" s="25">
-        <v>1</v>
-      </c>
-      <c r="U13" s="29">
+      <c r="D13" s="22">
+        <v>2</v>
+      </c>
+      <c r="E13" s="19">
+        <v>1</v>
+      </c>
+      <c r="F13" s="19">
+        <v>3</v>
+      </c>
+      <c r="G13" s="19">
+        <v>2</v>
+      </c>
+      <c r="H13" s="19">
+        <v>2</v>
+      </c>
+      <c r="I13" s="19">
+        <v>3</v>
+      </c>
+      <c r="J13" s="19">
+        <v>3</v>
+      </c>
+      <c r="K13" s="19">
+        <v>2</v>
+      </c>
+      <c r="L13" s="19">
+        <v>1</v>
+      </c>
+      <c r="M13" s="19">
+        <v>2</v>
+      </c>
+      <c r="N13" s="19">
+        <v>3</v>
+      </c>
+      <c r="O13" s="19">
+        <v>2</v>
+      </c>
+      <c r="P13" s="19">
+        <v>2</v>
+      </c>
+      <c r="Q13" s="19">
+        <v>2</v>
+      </c>
+      <c r="R13" s="19">
+        <v>1</v>
+      </c>
+      <c r="S13" s="19">
+        <v>3</v>
+      </c>
+      <c r="T13" s="19">
+        <v>1</v>
+      </c>
+      <c r="U13" s="23">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:21">
-      <c r="A14" s="21"/>
-      <c r="B14" s="27" t="s">
+      <c r="A14" s="33"/>
+      <c r="B14" s="21" t="s">
         <v>342</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="C14" s="21" t="s">
         <v>343</v>
       </c>
-      <c r="D14" s="28">
-        <v>3</v>
-      </c>
-      <c r="E14" s="25">
-        <v>1</v>
-      </c>
-      <c r="F14" s="25">
-        <v>3</v>
-      </c>
-      <c r="G14" s="25">
-        <v>2</v>
-      </c>
-      <c r="H14" s="25">
-        <v>2</v>
-      </c>
-      <c r="I14" s="25">
-        <v>3</v>
-      </c>
-      <c r="J14" s="25">
-        <v>3</v>
-      </c>
-      <c r="K14" s="25">
-        <v>3</v>
-      </c>
-      <c r="L14" s="25">
-        <v>1</v>
-      </c>
-      <c r="M14" s="25">
-        <v>2</v>
-      </c>
-      <c r="N14" s="25">
-        <v>3</v>
-      </c>
-      <c r="O14" s="25">
-        <v>2</v>
-      </c>
-      <c r="P14" s="25">
-        <v>2</v>
-      </c>
-      <c r="Q14" s="25">
-        <v>2</v>
-      </c>
-      <c r="R14" s="25">
-        <v>1</v>
-      </c>
-      <c r="S14" s="25">
-        <v>2</v>
-      </c>
-      <c r="T14" s="25">
-        <v>1</v>
-      </c>
-      <c r="U14" s="29">
+      <c r="D14" s="22">
+        <v>3</v>
+      </c>
+      <c r="E14" s="19">
+        <v>1</v>
+      </c>
+      <c r="F14" s="19">
+        <v>3</v>
+      </c>
+      <c r="G14" s="19">
+        <v>2</v>
+      </c>
+      <c r="H14" s="19">
+        <v>2</v>
+      </c>
+      <c r="I14" s="19">
+        <v>3</v>
+      </c>
+      <c r="J14" s="19">
+        <v>3</v>
+      </c>
+      <c r="K14" s="19">
+        <v>3</v>
+      </c>
+      <c r="L14" s="19">
+        <v>1</v>
+      </c>
+      <c r="M14" s="19">
+        <v>2</v>
+      </c>
+      <c r="N14" s="19">
+        <v>3</v>
+      </c>
+      <c r="O14" s="19">
+        <v>2</v>
+      </c>
+      <c r="P14" s="19">
+        <v>2</v>
+      </c>
+      <c r="Q14" s="19">
+        <v>2</v>
+      </c>
+      <c r="R14" s="19">
+        <v>1</v>
+      </c>
+      <c r="S14" s="19">
+        <v>2</v>
+      </c>
+      <c r="T14" s="19">
+        <v>1</v>
+      </c>
+      <c r="U14" s="23">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:21">
-      <c r="A15" s="21"/>
-      <c r="B15" s="27" t="s">
+      <c r="A15" s="33"/>
+      <c r="B15" s="21" t="s">
         <v>344</v>
       </c>
-      <c r="C15" s="27" t="s">
+      <c r="C15" s="21" t="s">
         <v>345</v>
       </c>
-      <c r="D15" s="28">
-        <v>1</v>
-      </c>
-      <c r="E15" s="25">
-        <v>1</v>
-      </c>
-      <c r="F15" s="25">
+      <c r="D15" s="22">
+        <v>1</v>
+      </c>
+      <c r="E15" s="19">
+        <v>1</v>
+      </c>
+      <c r="F15" s="19">
         <v>5</v>
       </c>
-      <c r="G15" s="25">
-        <v>1</v>
-      </c>
-      <c r="H15" s="25">
-        <v>2</v>
-      </c>
-      <c r="I15" s="25">
+      <c r="G15" s="19">
+        <v>1</v>
+      </c>
+      <c r="H15" s="19">
+        <v>2</v>
+      </c>
+      <c r="I15" s="19">
         <v>4</v>
       </c>
-      <c r="J15" s="25">
-        <v>3</v>
-      </c>
-      <c r="K15" s="25">
-        <v>2</v>
-      </c>
-      <c r="L15" s="25">
+      <c r="J15" s="19">
+        <v>3</v>
+      </c>
+      <c r="K15" s="19">
+        <v>2</v>
+      </c>
+      <c r="L15" s="19">
         <v>5</v>
       </c>
-      <c r="M15" s="25">
-        <v>1</v>
-      </c>
-      <c r="N15" s="25">
-        <v>3</v>
-      </c>
-      <c r="O15" s="25">
-        <v>2</v>
-      </c>
-      <c r="P15" s="25">
-        <v>2</v>
-      </c>
-      <c r="Q15" s="25">
-        <v>1</v>
-      </c>
-      <c r="R15" s="25">
-        <v>1</v>
-      </c>
-      <c r="S15" s="25">
+      <c r="M15" s="19">
+        <v>1</v>
+      </c>
+      <c r="N15" s="19">
+        <v>3</v>
+      </c>
+      <c r="O15" s="19">
+        <v>2</v>
+      </c>
+      <c r="P15" s="19">
+        <v>2</v>
+      </c>
+      <c r="Q15" s="19">
+        <v>1</v>
+      </c>
+      <c r="R15" s="19">
+        <v>1</v>
+      </c>
+      <c r="S15" s="19">
         <v>4</v>
       </c>
-      <c r="T15" s="25">
-        <v>3</v>
-      </c>
-      <c r="U15" s="29">
+      <c r="T15" s="19">
+        <v>3</v>
+      </c>
+      <c r="U15" s="23">
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="15" thickBot="1">
-      <c r="A16" s="30"/>
-      <c r="B16" s="31" t="s">
+      <c r="A16" s="37"/>
+      <c r="B16" s="24" t="s">
         <v>346</v>
       </c>
-      <c r="C16" s="31" t="s">
+      <c r="C16" s="24" t="s">
         <v>347</v>
       </c>
-      <c r="D16" s="28">
-        <v>2</v>
-      </c>
-      <c r="E16" s="25">
-        <v>2</v>
-      </c>
-      <c r="F16" s="25">
-        <v>2</v>
-      </c>
-      <c r="G16" s="25">
-        <v>2</v>
-      </c>
-      <c r="H16" s="25">
-        <v>1</v>
-      </c>
-      <c r="I16" s="25">
-        <v>2</v>
-      </c>
-      <c r="J16" s="25">
-        <v>2</v>
-      </c>
-      <c r="K16" s="25">
-        <v>3</v>
-      </c>
-      <c r="L16" s="25">
-        <v>1</v>
-      </c>
-      <c r="M16" s="25">
-        <v>2</v>
-      </c>
-      <c r="N16" s="25">
-        <v>3</v>
-      </c>
-      <c r="O16" s="25">
-        <v>2</v>
-      </c>
-      <c r="P16" s="25">
-        <v>2</v>
-      </c>
-      <c r="Q16" s="25">
-        <v>1</v>
-      </c>
-      <c r="R16" s="25">
-        <v>1</v>
-      </c>
-      <c r="S16" s="25">
-        <v>1</v>
-      </c>
-      <c r="T16" s="25">
-        <v>1</v>
-      </c>
-      <c r="U16" s="29">
+      <c r="D16" s="22">
+        <v>2</v>
+      </c>
+      <c r="E16" s="19">
+        <v>2</v>
+      </c>
+      <c r="F16" s="19">
+        <v>2</v>
+      </c>
+      <c r="G16" s="19">
+        <v>2</v>
+      </c>
+      <c r="H16" s="19">
+        <v>1</v>
+      </c>
+      <c r="I16" s="19">
+        <v>2</v>
+      </c>
+      <c r="J16" s="19">
+        <v>2</v>
+      </c>
+      <c r="K16" s="19">
+        <v>3</v>
+      </c>
+      <c r="L16" s="19">
+        <v>1</v>
+      </c>
+      <c r="M16" s="19">
+        <v>2</v>
+      </c>
+      <c r="N16" s="19">
+        <v>3</v>
+      </c>
+      <c r="O16" s="19">
+        <v>2</v>
+      </c>
+      <c r="P16" s="19">
+        <v>2</v>
+      </c>
+      <c r="Q16" s="19">
+        <v>1</v>
+      </c>
+      <c r="R16" s="19">
+        <v>1</v>
+      </c>
+      <c r="S16" s="19">
+        <v>1</v>
+      </c>
+      <c r="T16" s="19">
+        <v>1</v>
+      </c>
+      <c r="U16" s="23">
         <v>1</v>
       </c>
     </row>
@@ -5172,316 +5275,316 @@
       <c r="A17" s="32" t="s">
         <v>348</v>
       </c>
-      <c r="B17" s="33" t="s">
+      <c r="B17" s="25" t="s">
         <v>323</v>
       </c>
-      <c r="C17" s="33" t="s">
+      <c r="C17" s="25" t="s">
         <v>349</v>
       </c>
-      <c r="D17" s="28">
-        <v>1</v>
-      </c>
-      <c r="E17" s="25">
-        <v>3</v>
-      </c>
-      <c r="F17" s="25">
-        <v>1</v>
-      </c>
-      <c r="G17" s="25">
-        <v>3</v>
-      </c>
-      <c r="H17" s="25">
-        <v>1</v>
-      </c>
-      <c r="I17" s="25">
-        <v>3</v>
-      </c>
-      <c r="J17" s="25">
-        <v>2</v>
-      </c>
-      <c r="K17" s="25">
-        <v>3</v>
-      </c>
-      <c r="L17" s="25">
-        <v>1</v>
-      </c>
-      <c r="M17" s="25">
-        <v>2</v>
-      </c>
-      <c r="N17" s="25">
-        <v>3</v>
-      </c>
-      <c r="O17" s="25">
-        <v>2</v>
-      </c>
-      <c r="P17" s="25">
-        <v>2</v>
-      </c>
-      <c r="Q17" s="25">
-        <v>2</v>
-      </c>
-      <c r="R17" s="25">
-        <v>1</v>
-      </c>
-      <c r="S17" s="25">
-        <v>3</v>
-      </c>
-      <c r="T17" s="25">
-        <v>2</v>
-      </c>
-      <c r="U17" s="29">
+      <c r="D17" s="22">
+        <v>1</v>
+      </c>
+      <c r="E17" s="19">
+        <v>3</v>
+      </c>
+      <c r="F17" s="19">
+        <v>1</v>
+      </c>
+      <c r="G17" s="19">
+        <v>3</v>
+      </c>
+      <c r="H17" s="19">
+        <v>1</v>
+      </c>
+      <c r="I17" s="19">
+        <v>3</v>
+      </c>
+      <c r="J17" s="19">
+        <v>2</v>
+      </c>
+      <c r="K17" s="19">
+        <v>3</v>
+      </c>
+      <c r="L17" s="19">
+        <v>1</v>
+      </c>
+      <c r="M17" s="19">
+        <v>2</v>
+      </c>
+      <c r="N17" s="19">
+        <v>3</v>
+      </c>
+      <c r="O17" s="19">
+        <v>2</v>
+      </c>
+      <c r="P17" s="19">
+        <v>2</v>
+      </c>
+      <c r="Q17" s="19">
+        <v>2</v>
+      </c>
+      <c r="R17" s="19">
+        <v>1</v>
+      </c>
+      <c r="S17" s="19">
+        <v>3</v>
+      </c>
+      <c r="T17" s="19">
+        <v>2</v>
+      </c>
+      <c r="U17" s="23">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:21">
-      <c r="A18" s="21"/>
-      <c r="B18" s="27" t="s">
+      <c r="A18" s="33"/>
+      <c r="B18" s="21" t="s">
         <v>350</v>
       </c>
-      <c r="C18" s="27" t="s">
+      <c r="C18" s="21" t="s">
         <v>351</v>
       </c>
-      <c r="D18" s="28">
-        <v>1</v>
-      </c>
-      <c r="E18" s="25">
-        <v>1</v>
-      </c>
-      <c r="F18" s="25">
-        <v>3</v>
-      </c>
-      <c r="G18" s="25">
-        <v>2</v>
-      </c>
-      <c r="H18" s="25">
+      <c r="D18" s="22">
+        <v>1</v>
+      </c>
+      <c r="E18" s="19">
+        <v>1</v>
+      </c>
+      <c r="F18" s="19">
+        <v>3</v>
+      </c>
+      <c r="G18" s="19">
+        <v>2</v>
+      </c>
+      <c r="H18" s="19">
         <v>4</v>
       </c>
-      <c r="I18" s="25">
-        <v>2</v>
-      </c>
-      <c r="J18" s="25">
-        <v>3</v>
-      </c>
-      <c r="K18" s="25">
-        <v>2</v>
-      </c>
-      <c r="L18" s="25">
-        <v>1</v>
-      </c>
-      <c r="M18" s="25">
-        <v>2</v>
-      </c>
-      <c r="N18" s="25">
-        <v>3</v>
-      </c>
-      <c r="O18" s="25">
-        <v>1</v>
-      </c>
-      <c r="P18" s="25">
-        <v>1</v>
-      </c>
-      <c r="Q18" s="25">
-        <v>1</v>
-      </c>
-      <c r="R18" s="25">
-        <v>1</v>
-      </c>
-      <c r="S18" s="25">
-        <v>2</v>
-      </c>
-      <c r="T18" s="25">
-        <v>1</v>
-      </c>
-      <c r="U18" s="29">
+      <c r="I18" s="19">
+        <v>2</v>
+      </c>
+      <c r="J18" s="19">
+        <v>3</v>
+      </c>
+      <c r="K18" s="19">
+        <v>2</v>
+      </c>
+      <c r="L18" s="19">
+        <v>1</v>
+      </c>
+      <c r="M18" s="19">
+        <v>2</v>
+      </c>
+      <c r="N18" s="19">
+        <v>3</v>
+      </c>
+      <c r="O18" s="19">
+        <v>1</v>
+      </c>
+      <c r="P18" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="19">
+        <v>1</v>
+      </c>
+      <c r="R18" s="19">
+        <v>1</v>
+      </c>
+      <c r="S18" s="19">
+        <v>2</v>
+      </c>
+      <c r="T18" s="19">
+        <v>1</v>
+      </c>
+      <c r="U18" s="23">
         <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:21">
-      <c r="A19" s="21"/>
-      <c r="B19" s="27" t="s">
+      <c r="A19" s="33"/>
+      <c r="B19" s="21" t="s">
         <v>352</v>
       </c>
-      <c r="C19" s="27" t="s">
+      <c r="C19" s="21" t="s">
         <v>353</v>
       </c>
-      <c r="D19" s="28">
-        <v>1</v>
-      </c>
-      <c r="E19" s="25">
-        <v>2</v>
-      </c>
-      <c r="F19" s="25">
-        <v>2</v>
-      </c>
-      <c r="G19" s="25">
-        <v>2</v>
-      </c>
-      <c r="H19" s="25">
-        <v>2</v>
-      </c>
-      <c r="I19" s="25">
-        <v>2</v>
-      </c>
-      <c r="J19" s="25">
-        <v>3</v>
-      </c>
-      <c r="K19" s="25">
-        <v>3</v>
-      </c>
-      <c r="L19" s="25">
-        <v>2</v>
-      </c>
-      <c r="M19" s="25">
-        <v>1</v>
-      </c>
-      <c r="N19" s="25">
-        <v>3</v>
-      </c>
-      <c r="O19" s="25">
-        <v>2</v>
-      </c>
-      <c r="P19" s="25">
-        <v>2</v>
-      </c>
-      <c r="Q19" s="25">
-        <v>1</v>
-      </c>
-      <c r="R19" s="25">
-        <v>1</v>
-      </c>
-      <c r="S19" s="25">
+      <c r="D19" s="22">
+        <v>1</v>
+      </c>
+      <c r="E19" s="19">
+        <v>2</v>
+      </c>
+      <c r="F19" s="19">
+        <v>2</v>
+      </c>
+      <c r="G19" s="19">
+        <v>2</v>
+      </c>
+      <c r="H19" s="19">
+        <v>2</v>
+      </c>
+      <c r="I19" s="19">
+        <v>2</v>
+      </c>
+      <c r="J19" s="19">
+        <v>3</v>
+      </c>
+      <c r="K19" s="19">
+        <v>3</v>
+      </c>
+      <c r="L19" s="19">
+        <v>2</v>
+      </c>
+      <c r="M19" s="19">
+        <v>1</v>
+      </c>
+      <c r="N19" s="19">
+        <v>3</v>
+      </c>
+      <c r="O19" s="19">
+        <v>2</v>
+      </c>
+      <c r="P19" s="19">
+        <v>2</v>
+      </c>
+      <c r="Q19" s="19">
+        <v>1</v>
+      </c>
+      <c r="R19" s="19">
+        <v>1</v>
+      </c>
+      <c r="S19" s="19">
         <v>4</v>
       </c>
-      <c r="T19" s="25">
-        <v>1</v>
-      </c>
-      <c r="U19" s="29">
+      <c r="T19" s="19">
+        <v>1</v>
+      </c>
+      <c r="U19" s="23">
         <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:21">
-      <c r="A20" s="21"/>
-      <c r="B20" s="27" t="s">
+      <c r="A20" s="33"/>
+      <c r="B20" s="21" t="s">
         <v>327</v>
       </c>
-      <c r="C20" s="27" t="s">
+      <c r="C20" s="21" t="s">
         <v>354</v>
       </c>
-      <c r="D20" s="28">
-        <v>1</v>
-      </c>
-      <c r="E20" s="25">
-        <v>2</v>
-      </c>
-      <c r="F20" s="25">
-        <v>2</v>
-      </c>
-      <c r="G20" s="25">
-        <v>3</v>
-      </c>
-      <c r="H20" s="25">
-        <v>2</v>
-      </c>
-      <c r="I20" s="25">
-        <v>3</v>
-      </c>
-      <c r="J20" s="25">
-        <v>3</v>
-      </c>
-      <c r="K20" s="25">
-        <v>2</v>
-      </c>
-      <c r="L20" s="25">
-        <v>2</v>
-      </c>
-      <c r="M20" s="25">
-        <v>1</v>
-      </c>
-      <c r="N20" s="25">
-        <v>3</v>
-      </c>
-      <c r="O20" s="25">
-        <v>1</v>
-      </c>
-      <c r="P20" s="25">
-        <v>1</v>
-      </c>
-      <c r="Q20" s="25">
-        <v>3</v>
-      </c>
-      <c r="R20" s="25">
-        <v>1</v>
-      </c>
-      <c r="S20" s="25">
+      <c r="D20" s="22">
+        <v>1</v>
+      </c>
+      <c r="E20" s="19">
+        <v>2</v>
+      </c>
+      <c r="F20" s="19">
+        <v>2</v>
+      </c>
+      <c r="G20" s="19">
+        <v>3</v>
+      </c>
+      <c r="H20" s="19">
+        <v>2</v>
+      </c>
+      <c r="I20" s="19">
+        <v>3</v>
+      </c>
+      <c r="J20" s="19">
+        <v>3</v>
+      </c>
+      <c r="K20" s="19">
+        <v>2</v>
+      </c>
+      <c r="L20" s="19">
+        <v>2</v>
+      </c>
+      <c r="M20" s="19">
+        <v>1</v>
+      </c>
+      <c r="N20" s="19">
+        <v>3</v>
+      </c>
+      <c r="O20" s="19">
+        <v>1</v>
+      </c>
+      <c r="P20" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="19">
+        <v>3</v>
+      </c>
+      <c r="R20" s="19">
+        <v>1</v>
+      </c>
+      <c r="S20" s="19">
         <v>4</v>
       </c>
-      <c r="T20" s="25">
-        <v>3</v>
-      </c>
-      <c r="U20" s="29">
+      <c r="T20" s="19">
+        <v>3</v>
+      </c>
+      <c r="U20" s="23">
         <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:21" ht="15" thickBot="1">
-      <c r="A21" s="30"/>
-      <c r="B21" s="31" t="s">
+      <c r="A21" s="37"/>
+      <c r="B21" s="24" t="s">
         <v>329</v>
       </c>
-      <c r="C21" s="31" t="s">
+      <c r="C21" s="24" t="s">
         <v>355</v>
       </c>
-      <c r="D21" s="28">
-        <v>1</v>
-      </c>
-      <c r="E21" s="25">
-        <v>3</v>
-      </c>
-      <c r="F21" s="25">
-        <v>1</v>
-      </c>
-      <c r="G21" s="25">
-        <v>3</v>
-      </c>
-      <c r="H21" s="25">
-        <v>2</v>
-      </c>
-      <c r="I21" s="25">
-        <v>2</v>
-      </c>
-      <c r="J21" s="25">
-        <v>3</v>
-      </c>
-      <c r="K21" s="25">
-        <v>3</v>
-      </c>
-      <c r="L21" s="25">
-        <v>1</v>
-      </c>
-      <c r="M21" s="25">
-        <v>2</v>
-      </c>
-      <c r="N21" s="25">
-        <v>3</v>
-      </c>
-      <c r="O21" s="25">
-        <v>2</v>
-      </c>
-      <c r="P21" s="25">
-        <v>2</v>
-      </c>
-      <c r="Q21" s="25">
-        <v>2</v>
-      </c>
-      <c r="R21" s="25">
-        <v>1</v>
-      </c>
-      <c r="S21" s="25">
-        <v>2</v>
-      </c>
-      <c r="T21" s="25">
-        <v>2</v>
-      </c>
-      <c r="U21" s="29">
+      <c r="D21" s="22">
+        <v>1</v>
+      </c>
+      <c r="E21" s="19">
+        <v>3</v>
+      </c>
+      <c r="F21" s="19">
+        <v>1</v>
+      </c>
+      <c r="G21" s="19">
+        <v>3</v>
+      </c>
+      <c r="H21" s="19">
+        <v>2</v>
+      </c>
+      <c r="I21" s="19">
+        <v>2</v>
+      </c>
+      <c r="J21" s="19">
+        <v>3</v>
+      </c>
+      <c r="K21" s="19">
+        <v>3</v>
+      </c>
+      <c r="L21" s="19">
+        <v>1</v>
+      </c>
+      <c r="M21" s="19">
+        <v>2</v>
+      </c>
+      <c r="N21" s="19">
+        <v>3</v>
+      </c>
+      <c r="O21" s="19">
+        <v>2</v>
+      </c>
+      <c r="P21" s="19">
+        <v>2</v>
+      </c>
+      <c r="Q21" s="19">
+        <v>2</v>
+      </c>
+      <c r="R21" s="19">
+        <v>1</v>
+      </c>
+      <c r="S21" s="19">
+        <v>2</v>
+      </c>
+      <c r="T21" s="19">
+        <v>2</v>
+      </c>
+      <c r="U21" s="23">
         <v>1</v>
       </c>
     </row>
@@ -5489,316 +5592,316 @@
       <c r="A22" s="32" t="s">
         <v>356</v>
       </c>
-      <c r="B22" s="33" t="s">
+      <c r="B22" s="25" t="s">
         <v>323</v>
       </c>
-      <c r="C22" s="33" t="s">
+      <c r="C22" s="25" t="s">
         <v>357</v>
       </c>
-      <c r="D22" s="28">
-        <v>2</v>
-      </c>
-      <c r="E22" s="25">
-        <v>3</v>
-      </c>
-      <c r="F22" s="25">
-        <v>1</v>
-      </c>
-      <c r="G22" s="25">
-        <v>3</v>
-      </c>
-      <c r="H22" s="25">
-        <v>1</v>
-      </c>
-      <c r="I22" s="25">
-        <v>2</v>
-      </c>
-      <c r="J22" s="25">
-        <v>2</v>
-      </c>
-      <c r="K22" s="25">
+      <c r="D22" s="22">
+        <v>2</v>
+      </c>
+      <c r="E22" s="19">
+        <v>3</v>
+      </c>
+      <c r="F22" s="19">
+        <v>1</v>
+      </c>
+      <c r="G22" s="19">
+        <v>3</v>
+      </c>
+      <c r="H22" s="19">
+        <v>1</v>
+      </c>
+      <c r="I22" s="19">
+        <v>2</v>
+      </c>
+      <c r="J22" s="19">
+        <v>2</v>
+      </c>
+      <c r="K22" s="19">
         <v>4</v>
       </c>
-      <c r="L22" s="25">
-        <v>1</v>
-      </c>
-      <c r="M22" s="25">
-        <v>3</v>
-      </c>
-      <c r="N22" s="25">
-        <v>3</v>
-      </c>
-      <c r="O22" s="25">
-        <v>3</v>
-      </c>
-      <c r="P22" s="25">
-        <v>2</v>
-      </c>
-      <c r="Q22" s="25">
-        <v>2</v>
-      </c>
-      <c r="R22" s="25">
-        <v>1</v>
-      </c>
-      <c r="S22" s="25">
-        <v>2</v>
-      </c>
-      <c r="T22" s="25">
-        <v>2</v>
-      </c>
-      <c r="U22" s="29">
+      <c r="L22" s="19">
+        <v>1</v>
+      </c>
+      <c r="M22" s="19">
+        <v>3</v>
+      </c>
+      <c r="N22" s="19">
+        <v>3</v>
+      </c>
+      <c r="O22" s="19">
+        <v>3</v>
+      </c>
+      <c r="P22" s="19">
+        <v>2</v>
+      </c>
+      <c r="Q22" s="19">
+        <v>2</v>
+      </c>
+      <c r="R22" s="19">
+        <v>1</v>
+      </c>
+      <c r="S22" s="19">
+        <v>2</v>
+      </c>
+      <c r="T22" s="19">
+        <v>2</v>
+      </c>
+      <c r="U22" s="23">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:21">
-      <c r="A23" s="21"/>
-      <c r="B23" s="27" t="s">
+      <c r="A23" s="33"/>
+      <c r="B23" s="21" t="s">
         <v>352</v>
       </c>
-      <c r="C23" s="27" t="s">
+      <c r="C23" s="21" t="s">
         <v>358</v>
       </c>
-      <c r="D23" s="28">
-        <v>1</v>
-      </c>
-      <c r="E23" s="25">
-        <v>1</v>
-      </c>
-      <c r="F23" s="25">
-        <v>3</v>
-      </c>
-      <c r="G23" s="25">
-        <v>1</v>
-      </c>
-      <c r="H23" s="25">
-        <v>2</v>
-      </c>
-      <c r="I23" s="25">
-        <v>3</v>
-      </c>
-      <c r="J23" s="25">
-        <v>3</v>
-      </c>
-      <c r="K23" s="25">
-        <v>2</v>
-      </c>
-      <c r="L23" s="25">
-        <v>2</v>
-      </c>
-      <c r="M23" s="25">
+      <c r="D23" s="22">
+        <v>1</v>
+      </c>
+      <c r="E23" s="19">
+        <v>1</v>
+      </c>
+      <c r="F23" s="19">
+        <v>3</v>
+      </c>
+      <c r="G23" s="19">
+        <v>1</v>
+      </c>
+      <c r="H23" s="19">
+        <v>2</v>
+      </c>
+      <c r="I23" s="19">
+        <v>3</v>
+      </c>
+      <c r="J23" s="19">
+        <v>3</v>
+      </c>
+      <c r="K23" s="19">
+        <v>2</v>
+      </c>
+      <c r="L23" s="19">
+        <v>2</v>
+      </c>
+      <c r="M23" s="19">
         <v>4</v>
       </c>
-      <c r="N23" s="25">
-        <v>3</v>
-      </c>
-      <c r="O23" s="25">
-        <v>3</v>
-      </c>
-      <c r="P23" s="25">
-        <v>2</v>
-      </c>
-      <c r="Q23" s="25">
-        <v>1</v>
-      </c>
-      <c r="R23" s="25">
-        <v>1</v>
-      </c>
-      <c r="S23" s="25">
-        <v>3</v>
-      </c>
-      <c r="T23" s="25">
-        <v>2</v>
-      </c>
-      <c r="U23" s="29">
+      <c r="N23" s="19">
+        <v>3</v>
+      </c>
+      <c r="O23" s="19">
+        <v>3</v>
+      </c>
+      <c r="P23" s="19">
+        <v>2</v>
+      </c>
+      <c r="Q23" s="19">
+        <v>1</v>
+      </c>
+      <c r="R23" s="19">
+        <v>1</v>
+      </c>
+      <c r="S23" s="19">
+        <v>3</v>
+      </c>
+      <c r="T23" s="19">
+        <v>2</v>
+      </c>
+      <c r="U23" s="23">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:21">
-      <c r="A24" s="21"/>
-      <c r="B24" s="27" t="s">
+      <c r="A24" s="33"/>
+      <c r="B24" s="21" t="s">
         <v>359</v>
       </c>
-      <c r="C24" s="27" t="s">
+      <c r="C24" s="21" t="s">
         <v>360</v>
       </c>
-      <c r="D24" s="28">
+      <c r="D24" s="22">
         <v>4</v>
       </c>
-      <c r="E24" s="25">
-        <v>1</v>
-      </c>
-      <c r="F24" s="25">
-        <v>2</v>
-      </c>
-      <c r="G24" s="25">
+      <c r="E24" s="19">
+        <v>1</v>
+      </c>
+      <c r="F24" s="19">
+        <v>2</v>
+      </c>
+      <c r="G24" s="19">
         <v>4</v>
       </c>
-      <c r="H24" s="25">
-        <v>1</v>
-      </c>
-      <c r="I24" s="25">
-        <v>3</v>
-      </c>
-      <c r="J24" s="25">
-        <v>3</v>
-      </c>
-      <c r="K24" s="25">
+      <c r="H24" s="19">
+        <v>1</v>
+      </c>
+      <c r="I24" s="19">
+        <v>3</v>
+      </c>
+      <c r="J24" s="19">
+        <v>3</v>
+      </c>
+      <c r="K24" s="19">
         <v>4</v>
       </c>
-      <c r="L24" s="25">
+      <c r="L24" s="19">
         <v>4</v>
       </c>
-      <c r="M24" s="25">
-        <v>2</v>
-      </c>
-      <c r="N24" s="25">
-        <v>3</v>
-      </c>
-      <c r="O24" s="25">
-        <v>3</v>
-      </c>
-      <c r="P24" s="25">
-        <v>2</v>
-      </c>
-      <c r="Q24" s="25">
-        <v>3</v>
-      </c>
-      <c r="R24" s="25">
-        <v>3</v>
-      </c>
-      <c r="S24" s="25">
-        <v>3</v>
-      </c>
-      <c r="T24" s="25">
-        <v>2</v>
-      </c>
-      <c r="U24" s="29">
+      <c r="M24" s="19">
+        <v>2</v>
+      </c>
+      <c r="N24" s="19">
+        <v>3</v>
+      </c>
+      <c r="O24" s="19">
+        <v>3</v>
+      </c>
+      <c r="P24" s="19">
+        <v>2</v>
+      </c>
+      <c r="Q24" s="19">
+        <v>3</v>
+      </c>
+      <c r="R24" s="19">
+        <v>3</v>
+      </c>
+      <c r="S24" s="19">
+        <v>3</v>
+      </c>
+      <c r="T24" s="19">
+        <v>2</v>
+      </c>
+      <c r="U24" s="23">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:21">
-      <c r="A25" s="21"/>
-      <c r="B25" s="27" t="s">
+      <c r="A25" s="33"/>
+      <c r="B25" s="21" t="s">
         <v>327</v>
       </c>
-      <c r="C25" s="27" t="s">
+      <c r="C25" s="21" t="s">
         <v>361</v>
       </c>
-      <c r="D25" s="28">
-        <v>1</v>
-      </c>
-      <c r="E25" s="25">
-        <v>1</v>
-      </c>
-      <c r="F25" s="25">
-        <v>2</v>
-      </c>
-      <c r="G25" s="25">
-        <v>2</v>
-      </c>
-      <c r="H25" s="25">
-        <v>2</v>
-      </c>
-      <c r="I25" s="25">
-        <v>3</v>
-      </c>
-      <c r="J25" s="25">
-        <v>3</v>
-      </c>
-      <c r="K25" s="25">
-        <v>2</v>
-      </c>
-      <c r="L25" s="25">
-        <v>2</v>
-      </c>
-      <c r="M25" s="25">
-        <v>1</v>
-      </c>
-      <c r="N25" s="25">
-        <v>3</v>
-      </c>
-      <c r="O25" s="25">
-        <v>3</v>
-      </c>
-      <c r="P25" s="25">
-        <v>2</v>
-      </c>
-      <c r="Q25" s="25">
-        <v>2</v>
-      </c>
-      <c r="R25" s="25">
-        <v>1</v>
-      </c>
-      <c r="S25" s="25">
+      <c r="D25" s="22">
+        <v>1</v>
+      </c>
+      <c r="E25" s="19">
+        <v>1</v>
+      </c>
+      <c r="F25" s="19">
+        <v>2</v>
+      </c>
+      <c r="G25" s="19">
+        <v>2</v>
+      </c>
+      <c r="H25" s="19">
+        <v>2</v>
+      </c>
+      <c r="I25" s="19">
+        <v>3</v>
+      </c>
+      <c r="J25" s="19">
+        <v>3</v>
+      </c>
+      <c r="K25" s="19">
+        <v>2</v>
+      </c>
+      <c r="L25" s="19">
+        <v>2</v>
+      </c>
+      <c r="M25" s="19">
+        <v>1</v>
+      </c>
+      <c r="N25" s="19">
+        <v>3</v>
+      </c>
+      <c r="O25" s="19">
+        <v>3</v>
+      </c>
+      <c r="P25" s="19">
+        <v>2</v>
+      </c>
+      <c r="Q25" s="19">
+        <v>2</v>
+      </c>
+      <c r="R25" s="19">
+        <v>1</v>
+      </c>
+      <c r="S25" s="19">
         <v>4</v>
       </c>
-      <c r="T25" s="25">
-        <v>3</v>
-      </c>
-      <c r="U25" s="29">
+      <c r="T25" s="19">
+        <v>3</v>
+      </c>
+      <c r="U25" s="23">
         <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:21" ht="15" thickBot="1">
-      <c r="A26" s="30"/>
-      <c r="B26" s="31" t="s">
+      <c r="A26" s="37"/>
+      <c r="B26" s="24" t="s">
         <v>329</v>
       </c>
-      <c r="C26" s="31" t="s">
+      <c r="C26" s="24" t="s">
         <v>362</v>
       </c>
-      <c r="D26" s="28">
+      <c r="D26" s="22">
         <v>5</v>
       </c>
-      <c r="E26" s="25">
-        <v>2</v>
-      </c>
-      <c r="F26" s="25">
-        <v>1</v>
-      </c>
-      <c r="G26" s="25">
+      <c r="E26" s="19">
+        <v>2</v>
+      </c>
+      <c r="F26" s="19">
+        <v>1</v>
+      </c>
+      <c r="G26" s="19">
         <v>4</v>
       </c>
-      <c r="H26" s="25">
-        <v>1</v>
-      </c>
-      <c r="I26" s="25">
-        <v>1</v>
-      </c>
-      <c r="J26" s="25">
-        <v>3</v>
-      </c>
-      <c r="K26" s="25">
-        <v>1</v>
-      </c>
-      <c r="L26" s="25">
+      <c r="H26" s="19">
+        <v>1</v>
+      </c>
+      <c r="I26" s="19">
+        <v>1</v>
+      </c>
+      <c r="J26" s="19">
+        <v>3</v>
+      </c>
+      <c r="K26" s="19">
+        <v>1</v>
+      </c>
+      <c r="L26" s="19">
         <v>4</v>
       </c>
-      <c r="M26" s="25">
-        <v>1</v>
-      </c>
-      <c r="N26" s="25">
-        <v>3</v>
-      </c>
-      <c r="O26" s="25">
-        <v>3</v>
-      </c>
-      <c r="P26" s="25">
-        <v>3</v>
-      </c>
-      <c r="Q26" s="25">
-        <v>1</v>
-      </c>
-      <c r="R26" s="25">
-        <v>2</v>
-      </c>
-      <c r="S26" s="25">
-        <v>1</v>
-      </c>
-      <c r="T26" s="25">
-        <v>1</v>
-      </c>
-      <c r="U26" s="29">
+      <c r="M26" s="19">
+        <v>1</v>
+      </c>
+      <c r="N26" s="19">
+        <v>3</v>
+      </c>
+      <c r="O26" s="19">
+        <v>3</v>
+      </c>
+      <c r="P26" s="19">
+        <v>3</v>
+      </c>
+      <c r="Q26" s="19">
+        <v>1</v>
+      </c>
+      <c r="R26" s="19">
+        <v>2</v>
+      </c>
+      <c r="S26" s="19">
+        <v>1</v>
+      </c>
+      <c r="T26" s="19">
+        <v>1</v>
+      </c>
+      <c r="U26" s="23">
         <v>1</v>
       </c>
     </row>
@@ -5806,316 +5909,316 @@
       <c r="A27" s="32" t="s">
         <v>363</v>
       </c>
-      <c r="B27" s="33" t="s">
+      <c r="B27" s="25" t="s">
         <v>323</v>
       </c>
-      <c r="C27" s="33" t="s">
+      <c r="C27" s="25" t="s">
         <v>364</v>
       </c>
-      <c r="D27" s="28">
-        <v>3</v>
-      </c>
-      <c r="E27" s="25">
-        <v>3</v>
-      </c>
-      <c r="F27" s="25">
-        <v>1</v>
-      </c>
-      <c r="G27" s="25">
-        <v>3</v>
-      </c>
-      <c r="H27" s="25">
-        <v>1</v>
-      </c>
-      <c r="I27" s="25">
+      <c r="D27" s="22">
+        <v>3</v>
+      </c>
+      <c r="E27" s="19">
+        <v>3</v>
+      </c>
+      <c r="F27" s="19">
+        <v>1</v>
+      </c>
+      <c r="G27" s="19">
+        <v>3</v>
+      </c>
+      <c r="H27" s="19">
+        <v>1</v>
+      </c>
+      <c r="I27" s="19">
         <v>4</v>
       </c>
-      <c r="J27" s="25">
-        <v>2</v>
-      </c>
-      <c r="K27" s="25">
+      <c r="J27" s="19">
+        <v>2</v>
+      </c>
+      <c r="K27" s="19">
         <v>4</v>
       </c>
-      <c r="L27" s="25">
-        <v>1</v>
-      </c>
-      <c r="M27" s="25">
-        <v>3</v>
-      </c>
-      <c r="N27" s="25">
-        <v>3</v>
-      </c>
-      <c r="O27" s="25">
-        <v>3</v>
-      </c>
-      <c r="P27" s="25">
-        <v>2</v>
-      </c>
-      <c r="Q27" s="25">
-        <v>3</v>
-      </c>
-      <c r="R27" s="25">
-        <v>2</v>
-      </c>
-      <c r="S27" s="25">
+      <c r="L27" s="19">
+        <v>1</v>
+      </c>
+      <c r="M27" s="19">
+        <v>3</v>
+      </c>
+      <c r="N27" s="19">
+        <v>3</v>
+      </c>
+      <c r="O27" s="19">
+        <v>3</v>
+      </c>
+      <c r="P27" s="19">
+        <v>2</v>
+      </c>
+      <c r="Q27" s="19">
+        <v>3</v>
+      </c>
+      <c r="R27" s="19">
+        <v>2</v>
+      </c>
+      <c r="S27" s="19">
         <v>4</v>
       </c>
-      <c r="T27" s="25">
+      <c r="T27" s="19">
         <v>4</v>
       </c>
-      <c r="U27" s="29">
+      <c r="U27" s="23">
         <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:21">
-      <c r="A28" s="21"/>
-      <c r="B28" s="27" t="s">
+      <c r="A28" s="33"/>
+      <c r="B28" s="21" t="s">
         <v>365</v>
       </c>
-      <c r="C28" s="27" t="s">
+      <c r="C28" s="21" t="s">
         <v>366</v>
       </c>
-      <c r="D28" s="28">
-        <v>3</v>
-      </c>
-      <c r="E28" s="25">
-        <v>1</v>
-      </c>
-      <c r="F28" s="25">
+      <c r="D28" s="22">
+        <v>3</v>
+      </c>
+      <c r="E28" s="19">
+        <v>1</v>
+      </c>
+      <c r="F28" s="19">
         <v>4</v>
       </c>
-      <c r="G28" s="25">
-        <v>1</v>
-      </c>
-      <c r="H28" s="25">
-        <v>1</v>
-      </c>
-      <c r="I28" s="25">
+      <c r="G28" s="19">
+        <v>1</v>
+      </c>
+      <c r="H28" s="19">
+        <v>1</v>
+      </c>
+      <c r="I28" s="19">
         <v>5</v>
       </c>
-      <c r="J28" s="25">
-        <v>3</v>
-      </c>
-      <c r="K28" s="25">
-        <v>2</v>
-      </c>
-      <c r="L28" s="25">
-        <v>2</v>
-      </c>
-      <c r="M28" s="25">
+      <c r="J28" s="19">
+        <v>3</v>
+      </c>
+      <c r="K28" s="19">
+        <v>2</v>
+      </c>
+      <c r="L28" s="19">
+        <v>2</v>
+      </c>
+      <c r="M28" s="19">
         <v>4</v>
       </c>
-      <c r="N28" s="25">
-        <v>3</v>
-      </c>
-      <c r="O28" s="25">
-        <v>3</v>
-      </c>
-      <c r="P28" s="25">
-        <v>2</v>
-      </c>
-      <c r="Q28" s="25">
-        <v>1</v>
-      </c>
-      <c r="R28" s="25">
-        <v>2</v>
-      </c>
-      <c r="S28" s="25">
+      <c r="N28" s="19">
+        <v>3</v>
+      </c>
+      <c r="O28" s="19">
+        <v>3</v>
+      </c>
+      <c r="P28" s="19">
+        <v>2</v>
+      </c>
+      <c r="Q28" s="19">
+        <v>1</v>
+      </c>
+      <c r="R28" s="19">
+        <v>2</v>
+      </c>
+      <c r="S28" s="19">
         <v>5</v>
       </c>
-      <c r="T28" s="25">
+      <c r="T28" s="19">
         <v>4</v>
       </c>
-      <c r="U28" s="29">
+      <c r="U28" s="23">
         <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:21">
-      <c r="A29" s="21"/>
-      <c r="B29" s="27" t="s">
+      <c r="A29" s="33"/>
+      <c r="B29" s="21" t="s">
         <v>367</v>
       </c>
-      <c r="C29" s="27" t="s">
+      <c r="C29" s="21" t="s">
         <v>368</v>
       </c>
-      <c r="D29" s="28">
+      <c r="D29" s="22">
         <v>4</v>
       </c>
-      <c r="E29" s="25">
-        <v>1</v>
-      </c>
-      <c r="F29" s="25">
-        <v>3</v>
-      </c>
-      <c r="G29" s="25">
+      <c r="E29" s="19">
+        <v>1</v>
+      </c>
+      <c r="F29" s="19">
+        <v>3</v>
+      </c>
+      <c r="G29" s="19">
         <v>4</v>
       </c>
-      <c r="H29" s="25">
-        <v>1</v>
-      </c>
-      <c r="I29" s="25">
+      <c r="H29" s="19">
+        <v>1</v>
+      </c>
+      <c r="I29" s="19">
         <v>5</v>
       </c>
-      <c r="J29" s="25">
-        <v>3</v>
-      </c>
-      <c r="K29" s="25">
+      <c r="J29" s="19">
+        <v>3</v>
+      </c>
+      <c r="K29" s="19">
         <v>4</v>
       </c>
-      <c r="L29" s="25">
+      <c r="L29" s="19">
         <v>4</v>
       </c>
-      <c r="M29" s="25">
-        <v>2</v>
-      </c>
-      <c r="N29" s="25">
-        <v>3</v>
-      </c>
-      <c r="O29" s="25">
-        <v>3</v>
-      </c>
-      <c r="P29" s="25">
-        <v>2</v>
-      </c>
-      <c r="Q29" s="25">
-        <v>3</v>
-      </c>
-      <c r="R29" s="25">
-        <v>3</v>
-      </c>
-      <c r="S29" s="25">
+      <c r="M29" s="19">
+        <v>2</v>
+      </c>
+      <c r="N29" s="19">
+        <v>3</v>
+      </c>
+      <c r="O29" s="19">
+        <v>3</v>
+      </c>
+      <c r="P29" s="19">
+        <v>2</v>
+      </c>
+      <c r="Q29" s="19">
+        <v>3</v>
+      </c>
+      <c r="R29" s="19">
+        <v>3</v>
+      </c>
+      <c r="S29" s="19">
         <v>5</v>
       </c>
-      <c r="T29" s="25">
+      <c r="T29" s="19">
         <v>4</v>
       </c>
-      <c r="U29" s="29">
+      <c r="U29" s="23">
         <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:21">
-      <c r="A30" s="21"/>
-      <c r="B30" s="27" t="s">
+      <c r="A30" s="33"/>
+      <c r="B30" s="21" t="s">
         <v>369</v>
       </c>
-      <c r="C30" s="27" t="s">
+      <c r="C30" s="21" t="s">
         <v>370</v>
       </c>
-      <c r="D30" s="28">
-        <v>2</v>
-      </c>
-      <c r="E30" s="25">
-        <v>3</v>
-      </c>
-      <c r="F30" s="25">
+      <c r="D30" s="22">
+        <v>2</v>
+      </c>
+      <c r="E30" s="19">
+        <v>3</v>
+      </c>
+      <c r="F30" s="19">
         <v>5</v>
       </c>
-      <c r="G30" s="25">
-        <v>1</v>
-      </c>
-      <c r="H30" s="25">
-        <v>1</v>
-      </c>
-      <c r="I30" s="25">
+      <c r="G30" s="19">
+        <v>1</v>
+      </c>
+      <c r="H30" s="19">
+        <v>1</v>
+      </c>
+      <c r="I30" s="19">
         <v>4</v>
       </c>
-      <c r="J30" s="25">
-        <v>2</v>
-      </c>
-      <c r="K30" s="25">
-        <v>2</v>
-      </c>
-      <c r="L30" s="25">
+      <c r="J30" s="19">
+        <v>2</v>
+      </c>
+      <c r="K30" s="19">
+        <v>2</v>
+      </c>
+      <c r="L30" s="19">
         <v>5</v>
       </c>
-      <c r="M30" s="25">
-        <v>1</v>
-      </c>
-      <c r="N30" s="25">
-        <v>3</v>
-      </c>
-      <c r="O30" s="25">
-        <v>3</v>
-      </c>
-      <c r="P30" s="25">
-        <v>2</v>
-      </c>
-      <c r="Q30" s="25">
-        <v>3</v>
-      </c>
-      <c r="R30" s="25">
-        <v>2</v>
-      </c>
-      <c r="S30" s="25">
+      <c r="M30" s="19">
+        <v>1</v>
+      </c>
+      <c r="N30" s="19">
+        <v>3</v>
+      </c>
+      <c r="O30" s="19">
+        <v>3</v>
+      </c>
+      <c r="P30" s="19">
+        <v>2</v>
+      </c>
+      <c r="Q30" s="19">
+        <v>3</v>
+      </c>
+      <c r="R30" s="19">
+        <v>2</v>
+      </c>
+      <c r="S30" s="19">
         <v>4</v>
       </c>
-      <c r="T30" s="25">
-        <v>3</v>
-      </c>
-      <c r="U30" s="29">
+      <c r="T30" s="19">
+        <v>3</v>
+      </c>
+      <c r="U30" s="23">
         <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:21" ht="15" thickBot="1">
-      <c r="A31" s="30"/>
-      <c r="B31" s="31" t="s">
+      <c r="A31" s="37"/>
+      <c r="B31" s="24" t="s">
         <v>371</v>
       </c>
-      <c r="C31" s="31" t="s">
+      <c r="C31" s="24" t="s">
         <v>372</v>
       </c>
-      <c r="D31" s="28">
+      <c r="D31" s="22">
         <v>5</v>
       </c>
-      <c r="E31" s="25">
-        <v>2</v>
-      </c>
-      <c r="F31" s="25">
-        <v>1</v>
-      </c>
-      <c r="G31" s="25">
+      <c r="E31" s="19">
+        <v>2</v>
+      </c>
+      <c r="F31" s="19">
+        <v>1</v>
+      </c>
+      <c r="G31" s="19">
         <v>4</v>
       </c>
-      <c r="H31" s="25">
-        <v>1</v>
-      </c>
-      <c r="I31" s="25">
-        <v>3</v>
-      </c>
-      <c r="J31" s="25">
-        <v>3</v>
-      </c>
-      <c r="K31" s="25">
-        <v>1</v>
-      </c>
-      <c r="L31" s="25">
+      <c r="H31" s="19">
+        <v>1</v>
+      </c>
+      <c r="I31" s="19">
+        <v>3</v>
+      </c>
+      <c r="J31" s="19">
+        <v>3</v>
+      </c>
+      <c r="K31" s="19">
+        <v>1</v>
+      </c>
+      <c r="L31" s="19">
         <v>4</v>
       </c>
-      <c r="M31" s="25">
-        <v>1</v>
-      </c>
-      <c r="N31" s="25">
-        <v>3</v>
-      </c>
-      <c r="O31" s="25">
-        <v>3</v>
-      </c>
-      <c r="P31" s="25">
-        <v>3</v>
-      </c>
-      <c r="Q31" s="25">
-        <v>1</v>
-      </c>
-      <c r="R31" s="25">
-        <v>2</v>
-      </c>
-      <c r="S31" s="25">
-        <v>1</v>
-      </c>
-      <c r="T31" s="25">
-        <v>1</v>
-      </c>
-      <c r="U31" s="29">
+      <c r="M31" s="19">
+        <v>1</v>
+      </c>
+      <c r="N31" s="19">
+        <v>3</v>
+      </c>
+      <c r="O31" s="19">
+        <v>3</v>
+      </c>
+      <c r="P31" s="19">
+        <v>3</v>
+      </c>
+      <c r="Q31" s="19">
+        <v>1</v>
+      </c>
+      <c r="R31" s="19">
+        <v>2</v>
+      </c>
+      <c r="S31" s="19">
+        <v>1</v>
+      </c>
+      <c r="T31" s="19">
+        <v>1</v>
+      </c>
+      <c r="U31" s="23">
         <v>4</v>
       </c>
     </row>
@@ -6123,449 +6226,453 @@
       <c r="A32" s="32" t="s">
         <v>373</v>
       </c>
-      <c r="B32" s="22" t="s">
+      <c r="B32" s="16" t="s">
         <v>323</v>
       </c>
-      <c r="C32" s="22" t="s">
+      <c r="C32" s="16" t="s">
         <v>374</v>
       </c>
-      <c r="D32" s="28">
-        <v>2</v>
-      </c>
-      <c r="E32" s="25">
-        <v>3</v>
-      </c>
-      <c r="F32" s="25">
-        <v>1</v>
-      </c>
-      <c r="G32" s="25">
-        <v>3</v>
-      </c>
-      <c r="H32" s="25">
-        <v>1</v>
-      </c>
-      <c r="I32" s="25">
-        <v>3</v>
-      </c>
-      <c r="J32" s="25">
-        <v>2</v>
-      </c>
-      <c r="K32" s="25">
-        <v>3</v>
-      </c>
-      <c r="L32" s="25">
-        <v>1</v>
-      </c>
-      <c r="M32" s="25">
-        <v>3</v>
-      </c>
-      <c r="N32" s="25">
-        <v>3</v>
-      </c>
-      <c r="O32" s="25">
-        <v>2</v>
-      </c>
-      <c r="P32" s="25">
-        <v>2</v>
-      </c>
-      <c r="Q32" s="25">
-        <v>2</v>
-      </c>
-      <c r="R32" s="25">
-        <v>3</v>
-      </c>
-      <c r="S32" s="25">
-        <v>2</v>
-      </c>
-      <c r="T32" s="25">
-        <v>2</v>
-      </c>
-      <c r="U32" s="29">
+      <c r="D32" s="22">
+        <v>2</v>
+      </c>
+      <c r="E32" s="19">
+        <v>3</v>
+      </c>
+      <c r="F32" s="19">
+        <v>1</v>
+      </c>
+      <c r="G32" s="19">
+        <v>3</v>
+      </c>
+      <c r="H32" s="19">
+        <v>1</v>
+      </c>
+      <c r="I32" s="19">
+        <v>3</v>
+      </c>
+      <c r="J32" s="19">
+        <v>2</v>
+      </c>
+      <c r="K32" s="19">
+        <v>3</v>
+      </c>
+      <c r="L32" s="19">
+        <v>1</v>
+      </c>
+      <c r="M32" s="19">
+        <v>3</v>
+      </c>
+      <c r="N32" s="19">
+        <v>3</v>
+      </c>
+      <c r="O32" s="19">
+        <v>2</v>
+      </c>
+      <c r="P32" s="19">
+        <v>2</v>
+      </c>
+      <c r="Q32" s="19">
+        <v>2</v>
+      </c>
+      <c r="R32" s="19">
+        <v>3</v>
+      </c>
+      <c r="S32" s="19">
+        <v>2</v>
+      </c>
+      <c r="T32" s="19">
+        <v>2</v>
+      </c>
+      <c r="U32" s="23">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:21">
-      <c r="A33" s="21"/>
-      <c r="B33" s="27" t="s">
+      <c r="A33" s="33"/>
+      <c r="B33" s="21" t="s">
         <v>325</v>
       </c>
-      <c r="C33" s="27" t="s">
+      <c r="C33" s="21" t="s">
         <v>375</v>
       </c>
-      <c r="D33" s="28">
-        <v>2</v>
-      </c>
-      <c r="E33" s="25">
-        <v>1</v>
-      </c>
-      <c r="F33" s="25">
-        <v>3</v>
-      </c>
-      <c r="G33" s="25">
-        <v>2</v>
-      </c>
-      <c r="H33" s="25">
-        <v>2</v>
-      </c>
-      <c r="I33" s="25">
-        <v>2</v>
-      </c>
-      <c r="J33" s="25">
-        <v>2</v>
-      </c>
-      <c r="K33" s="25">
-        <v>3</v>
-      </c>
-      <c r="L33" s="25">
-        <v>2</v>
-      </c>
-      <c r="M33" s="25">
+      <c r="D33" s="22">
+        <v>2</v>
+      </c>
+      <c r="E33" s="19">
+        <v>1</v>
+      </c>
+      <c r="F33" s="19">
+        <v>3</v>
+      </c>
+      <c r="G33" s="19">
+        <v>2</v>
+      </c>
+      <c r="H33" s="19">
+        <v>2</v>
+      </c>
+      <c r="I33" s="19">
+        <v>2</v>
+      </c>
+      <c r="J33" s="19">
+        <v>2</v>
+      </c>
+      <c r="K33" s="19">
+        <v>3</v>
+      </c>
+      <c r="L33" s="19">
+        <v>2</v>
+      </c>
+      <c r="M33" s="19">
         <v>4</v>
       </c>
-      <c r="N33" s="25">
-        <v>3</v>
-      </c>
-      <c r="O33" s="25">
-        <v>2</v>
-      </c>
-      <c r="P33" s="25">
-        <v>2</v>
-      </c>
-      <c r="Q33" s="25">
-        <v>2</v>
-      </c>
-      <c r="R33" s="25">
-        <v>1</v>
-      </c>
-      <c r="S33" s="25">
-        <v>1</v>
-      </c>
-      <c r="T33" s="25">
-        <v>1</v>
-      </c>
-      <c r="U33" s="29">
+      <c r="N33" s="19">
+        <v>3</v>
+      </c>
+      <c r="O33" s="19">
+        <v>2</v>
+      </c>
+      <c r="P33" s="19">
+        <v>2</v>
+      </c>
+      <c r="Q33" s="19">
+        <v>2</v>
+      </c>
+      <c r="R33" s="19">
+        <v>1</v>
+      </c>
+      <c r="S33" s="19">
+        <v>1</v>
+      </c>
+      <c r="T33" s="19">
+        <v>1</v>
+      </c>
+      <c r="U33" s="23">
         <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:21" ht="15" thickBot="1">
-      <c r="A34" s="21"/>
-      <c r="B34" s="27" t="s">
+      <c r="A34" s="33"/>
+      <c r="B34" s="21" t="s">
         <v>327</v>
       </c>
-      <c r="C34" s="27" t="s">
+      <c r="C34" s="21" t="s">
         <v>376</v>
       </c>
-      <c r="D34" s="28">
-        <v>2</v>
-      </c>
-      <c r="E34" s="25">
-        <v>1</v>
-      </c>
-      <c r="F34" s="25">
-        <v>3</v>
-      </c>
-      <c r="G34" s="25">
-        <v>2</v>
-      </c>
-      <c r="H34" s="25">
-        <v>2</v>
-      </c>
-      <c r="I34" s="25">
-        <v>2</v>
-      </c>
-      <c r="J34" s="25">
-        <v>2</v>
-      </c>
-      <c r="K34" s="25">
-        <v>3</v>
-      </c>
-      <c r="L34" s="25">
-        <v>2</v>
-      </c>
-      <c r="M34" s="25">
-        <v>1</v>
-      </c>
-      <c r="N34" s="25">
-        <v>3</v>
-      </c>
-      <c r="O34" s="25">
-        <v>2</v>
-      </c>
-      <c r="P34" s="25">
-        <v>2</v>
-      </c>
-      <c r="Q34" s="25">
-        <v>2</v>
-      </c>
-      <c r="R34" s="25">
-        <v>1</v>
-      </c>
-      <c r="S34" s="25">
-        <v>2</v>
-      </c>
-      <c r="T34" s="25">
-        <v>1</v>
-      </c>
-      <c r="U34" s="29">
+      <c r="D34" s="22">
+        <v>2</v>
+      </c>
+      <c r="E34" s="19">
+        <v>1</v>
+      </c>
+      <c r="F34" s="19">
+        <v>3</v>
+      </c>
+      <c r="G34" s="19">
+        <v>2</v>
+      </c>
+      <c r="H34" s="19">
+        <v>2</v>
+      </c>
+      <c r="I34" s="19">
+        <v>2</v>
+      </c>
+      <c r="J34" s="19">
+        <v>2</v>
+      </c>
+      <c r="K34" s="19">
+        <v>3</v>
+      </c>
+      <c r="L34" s="19">
+        <v>2</v>
+      </c>
+      <c r="M34" s="19">
+        <v>1</v>
+      </c>
+      <c r="N34" s="19">
+        <v>3</v>
+      </c>
+      <c r="O34" s="19">
+        <v>2</v>
+      </c>
+      <c r="P34" s="19">
+        <v>2</v>
+      </c>
+      <c r="Q34" s="19">
+        <v>2</v>
+      </c>
+      <c r="R34" s="19">
+        <v>1</v>
+      </c>
+      <c r="S34" s="19">
+        <v>2</v>
+      </c>
+      <c r="T34" s="19">
+        <v>1</v>
+      </c>
+      <c r="U34" s="23">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:21">
-      <c r="A35" s="35" t="s">
+      <c r="A35" s="34" t="s">
         <v>377</v>
       </c>
-      <c r="B35" s="36" t="s">
+      <c r="B35" s="27" t="s">
         <v>378</v>
       </c>
-      <c r="C35" s="36" t="s">
+      <c r="C35" s="27" t="s">
         <v>379</v>
       </c>
-      <c r="D35" s="23">
-        <v>1</v>
-      </c>
-      <c r="E35" s="24">
-        <v>1</v>
-      </c>
-      <c r="F35" s="24">
-        <v>1</v>
-      </c>
-      <c r="G35" s="24">
+      <c r="D35" s="17">
+        <v>1</v>
+      </c>
+      <c r="E35" s="18">
+        <v>1</v>
+      </c>
+      <c r="F35" s="18">
+        <v>1</v>
+      </c>
+      <c r="G35" s="18">
         <v>4</v>
       </c>
-      <c r="H35" s="24">
-        <v>1</v>
-      </c>
-      <c r="I35" s="24">
+      <c r="H35" s="18">
+        <v>1</v>
+      </c>
+      <c r="I35" s="18">
         <v>5</v>
       </c>
-      <c r="J35" s="24">
-        <v>3</v>
-      </c>
-      <c r="K35" s="24">
-        <v>2</v>
-      </c>
-      <c r="L35" s="24">
-        <v>1</v>
-      </c>
-      <c r="M35" s="24">
-        <v>3</v>
-      </c>
-      <c r="N35" s="24">
-        <v>3</v>
-      </c>
-      <c r="O35" s="24">
-        <v>3</v>
-      </c>
-      <c r="P35" s="24">
-        <v>2</v>
-      </c>
-      <c r="Q35" s="24">
-        <v>2</v>
-      </c>
-      <c r="R35" s="24">
-        <v>1</v>
-      </c>
-      <c r="S35" s="24">
+      <c r="J35" s="18">
+        <v>3</v>
+      </c>
+      <c r="K35" s="18">
+        <v>2</v>
+      </c>
+      <c r="L35" s="18">
+        <v>1</v>
+      </c>
+      <c r="M35" s="18">
+        <v>3</v>
+      </c>
+      <c r="N35" s="18">
+        <v>3</v>
+      </c>
+      <c r="O35" s="18">
+        <v>3</v>
+      </c>
+      <c r="P35" s="18">
+        <v>2</v>
+      </c>
+      <c r="Q35" s="18">
+        <v>2</v>
+      </c>
+      <c r="R35" s="18">
+        <v>1</v>
+      </c>
+      <c r="S35" s="18">
         <v>5</v>
       </c>
-      <c r="T35" s="24">
+      <c r="T35" s="18">
         <v>4</v>
       </c>
-      <c r="U35" s="26">
+      <c r="U35" s="20">
         <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:21">
-      <c r="A36" s="37"/>
-      <c r="B36" s="38" t="s">
+      <c r="A36" s="35"/>
+      <c r="B36" s="28" t="s">
         <v>380</v>
       </c>
-      <c r="C36" s="38" t="s">
+      <c r="C36" s="28" t="s">
         <v>381</v>
       </c>
-      <c r="D36" s="28">
+      <c r="D36" s="22">
         <v>5</v>
       </c>
-      <c r="E36" s="25">
-        <v>2</v>
-      </c>
-      <c r="F36" s="25">
-        <v>1</v>
-      </c>
-      <c r="G36" s="25">
+      <c r="E36" s="19">
+        <v>2</v>
+      </c>
+      <c r="F36" s="19">
+        <v>1</v>
+      </c>
+      <c r="G36" s="19">
         <v>4</v>
       </c>
-      <c r="H36" s="25">
-        <v>1</v>
-      </c>
-      <c r="I36" s="25">
-        <v>1</v>
-      </c>
-      <c r="J36" s="25">
+      <c r="H36" s="19">
+        <v>1</v>
+      </c>
+      <c r="I36" s="19">
+        <v>1</v>
+      </c>
+      <c r="J36" s="19">
         <v>4</v>
       </c>
-      <c r="K36" s="25">
-        <v>3</v>
-      </c>
-      <c r="L36" s="25">
-        <v>3</v>
-      </c>
-      <c r="M36" s="25">
-        <v>3</v>
-      </c>
-      <c r="N36" s="25">
+      <c r="K36" s="19">
+        <v>3</v>
+      </c>
+      <c r="L36" s="19">
+        <v>3</v>
+      </c>
+      <c r="M36" s="19">
+        <v>3</v>
+      </c>
+      <c r="N36" s="19">
         <v>4</v>
       </c>
-      <c r="O36" s="25">
-        <v>3</v>
-      </c>
-      <c r="P36" s="25">
-        <v>3</v>
-      </c>
-      <c r="Q36" s="25">
+      <c r="O36" s="19">
+        <v>3</v>
+      </c>
+      <c r="P36" s="19">
+        <v>3</v>
+      </c>
+      <c r="Q36" s="19">
         <v>4</v>
       </c>
-      <c r="R36" s="25">
+      <c r="R36" s="19">
         <v>4</v>
       </c>
-      <c r="S36" s="25">
+      <c r="S36" s="19">
         <v>6</v>
       </c>
-      <c r="T36" s="25">
-        <v>2</v>
-      </c>
-      <c r="U36" s="29">
+      <c r="T36" s="19">
+        <v>2</v>
+      </c>
+      <c r="U36" s="23">
         <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:21">
-      <c r="A37" s="37"/>
-      <c r="B37" s="38" t="s">
+      <c r="A37" s="35"/>
+      <c r="B37" s="28" t="s">
         <v>382</v>
       </c>
-      <c r="C37" s="38" t="s">
+      <c r="C37" s="28" t="s">
         <v>383</v>
       </c>
-      <c r="D37" s="28">
+      <c r="D37" s="22">
         <v>5</v>
       </c>
-      <c r="E37" s="25">
-        <v>2</v>
-      </c>
-      <c r="F37" s="25">
-        <v>1</v>
-      </c>
-      <c r="G37" s="25">
+      <c r="E37" s="19">
+        <v>2</v>
+      </c>
+      <c r="F37" s="19">
+        <v>1</v>
+      </c>
+      <c r="G37" s="19">
         <v>4</v>
       </c>
-      <c r="H37" s="25">
-        <v>1</v>
-      </c>
-      <c r="I37" s="25">
-        <v>1</v>
-      </c>
-      <c r="J37" s="25">
+      <c r="H37" s="19">
+        <v>1</v>
+      </c>
+      <c r="I37" s="19">
+        <v>1</v>
+      </c>
+      <c r="J37" s="19">
         <v>4</v>
       </c>
-      <c r="K37" s="25">
-        <v>1</v>
-      </c>
-      <c r="L37" s="25">
+      <c r="K37" s="19">
+        <v>1</v>
+      </c>
+      <c r="L37" s="19">
         <v>4</v>
       </c>
-      <c r="M37" s="25">
+      <c r="M37" s="19">
         <v>4</v>
       </c>
-      <c r="N37" s="25">
+      <c r="N37" s="19">
         <v>4</v>
       </c>
-      <c r="O37" s="25">
+      <c r="O37" s="19">
         <v>4</v>
       </c>
-      <c r="P37" s="25">
-        <v>3</v>
-      </c>
-      <c r="Q37" s="25">
+      <c r="P37" s="19">
+        <v>3</v>
+      </c>
+      <c r="Q37" s="19">
         <v>4</v>
       </c>
-      <c r="R37" s="25">
+      <c r="R37" s="19">
         <v>4</v>
       </c>
-      <c r="S37" s="25">
+      <c r="S37" s="19">
         <v>6</v>
       </c>
-      <c r="T37" s="25">
-        <v>2</v>
-      </c>
-      <c r="U37" s="29">
+      <c r="T37" s="19">
+        <v>2</v>
+      </c>
+      <c r="U37" s="23">
         <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:21" ht="15" thickBot="1">
-      <c r="A38" s="39"/>
-      <c r="B38" s="40" t="s">
+      <c r="A38" s="36"/>
+      <c r="B38" s="29" t="s">
         <v>384</v>
       </c>
-      <c r="C38" s="40" t="s">
+      <c r="C38" s="29" t="s">
         <v>385</v>
       </c>
-      <c r="D38" s="41">
+      <c r="D38" s="30">
         <v>5</v>
       </c>
-      <c r="E38" s="34">
-        <v>2</v>
-      </c>
-      <c r="F38" s="34">
-        <v>1</v>
-      </c>
-      <c r="G38" s="34">
+      <c r="E38" s="26">
+        <v>2</v>
+      </c>
+      <c r="F38" s="26">
+        <v>1</v>
+      </c>
+      <c r="G38" s="26">
         <v>4</v>
       </c>
-      <c r="H38" s="34">
-        <v>1</v>
-      </c>
-      <c r="I38" s="34">
-        <v>1</v>
-      </c>
-      <c r="J38" s="34">
-        <v>3</v>
-      </c>
-      <c r="K38" s="34">
-        <v>1</v>
-      </c>
-      <c r="L38" s="34">
-        <v>3</v>
-      </c>
-      <c r="M38" s="34">
-        <v>1</v>
-      </c>
-      <c r="N38" s="34">
+      <c r="H38" s="26">
+        <v>1</v>
+      </c>
+      <c r="I38" s="26">
+        <v>1</v>
+      </c>
+      <c r="J38" s="26">
+        <v>3</v>
+      </c>
+      <c r="K38" s="26">
+        <v>1</v>
+      </c>
+      <c r="L38" s="26">
+        <v>3</v>
+      </c>
+      <c r="M38" s="26">
+        <v>1</v>
+      </c>
+      <c r="N38" s="26">
         <v>4</v>
       </c>
-      <c r="O38" s="34">
-        <v>3</v>
-      </c>
-      <c r="P38" s="34">
-        <v>3</v>
-      </c>
-      <c r="Q38" s="34">
+      <c r="O38" s="26">
+        <v>3</v>
+      </c>
+      <c r="P38" s="26">
+        <v>3</v>
+      </c>
+      <c r="Q38" s="26">
         <v>4</v>
       </c>
-      <c r="R38" s="34">
+      <c r="R38" s="26">
         <v>4</v>
       </c>
-      <c r="S38" s="34">
+      <c r="S38" s="26">
         <v>6</v>
       </c>
-      <c r="T38" s="34">
-        <v>2</v>
-      </c>
-      <c r="U38" s="42">
+      <c r="T38" s="26">
+        <v>2</v>
+      </c>
+      <c r="U38" s="31">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:U1"/>
     <mergeCell ref="A32:A34"/>
     <mergeCell ref="A35:A38"/>
     <mergeCell ref="A3:A6"/>
@@ -6574,10 +6681,1349 @@
     <mergeCell ref="A17:A21"/>
     <mergeCell ref="A22:A26"/>
     <mergeCell ref="A27:A31"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:U1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="AK467:DM475"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="BK468" workbookViewId="0">
+      <selection activeCell="CK468" sqref="CK468"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="36" max="36" width="10.83203125" customWidth="1"/>
+    <col min="37" max="37" width="3" customWidth="1"/>
+    <col min="38" max="38" width="3" style="3" customWidth="1"/>
+    <col min="39" max="70" width="3" customWidth="1"/>
+    <col min="73" max="94" width="3" customWidth="1"/>
+    <col min="95" max="96" width="10.83203125" customWidth="1"/>
+    <col min="97" max="116" width="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="467" spans="37:117" ht="55">
+      <c r="AK467" s="52" t="s">
+        <v>386</v>
+      </c>
+      <c r="AL467" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM467" s="47"/>
+      <c r="AN467" s="47"/>
+      <c r="AO467" s="47" t="s">
+        <v>241</v>
+      </c>
+      <c r="AP467" s="47"/>
+      <c r="AQ467" s="47"/>
+      <c r="AR467" s="47"/>
+      <c r="AS467" s="47"/>
+      <c r="AT467" s="47"/>
+      <c r="AU467" s="47"/>
+      <c r="AV467" s="47"/>
+      <c r="AW467" s="47"/>
+      <c r="AX467" s="47"/>
+      <c r="AY467" s="47"/>
+      <c r="AZ467" s="47"/>
+      <c r="BA467" s="47"/>
+      <c r="BB467" s="47"/>
+      <c r="BC467" s="47"/>
+      <c r="BD467" s="47"/>
+      <c r="BE467" s="47"/>
+      <c r="BF467" s="47"/>
+      <c r="BG467" s="47"/>
+      <c r="BH467" s="47"/>
+      <c r="BI467" s="47"/>
+      <c r="BJ467" s="47"/>
+      <c r="BK467" s="47"/>
+      <c r="BL467" s="47"/>
+      <c r="BM467" s="47"/>
+      <c r="BN467" s="47"/>
+      <c r="BO467" s="47"/>
+      <c r="BP467" s="47"/>
+      <c r="BQ467" s="47"/>
+      <c r="BR467" s="47"/>
+      <c r="CT467" s="3"/>
+    </row>
+    <row r="468" spans="37:117" ht="155">
+      <c r="AK468" s="52"/>
+      <c r="AL468" s="46"/>
+      <c r="AM468" s="47" t="s">
+        <v>238</v>
+      </c>
+      <c r="AN468" s="47"/>
+      <c r="AO468" s="47" t="s">
+        <v>240</v>
+      </c>
+      <c r="AP468" s="47"/>
+      <c r="AQ468" s="47"/>
+      <c r="AR468" s="47"/>
+      <c r="AS468" s="47"/>
+      <c r="AT468" s="47"/>
+      <c r="AU468" s="47"/>
+      <c r="AV468" s="47"/>
+      <c r="AW468" s="47"/>
+      <c r="AX468" s="47"/>
+      <c r="AY468" s="47"/>
+      <c r="AZ468" s="47"/>
+      <c r="BA468" s="47"/>
+      <c r="BB468" s="47"/>
+      <c r="BC468" s="47"/>
+      <c r="BD468" s="47"/>
+      <c r="BE468" s="47"/>
+      <c r="BF468" s="47"/>
+      <c r="BG468" s="47"/>
+      <c r="BH468" s="47"/>
+      <c r="BI468" s="47"/>
+      <c r="BJ468" s="47"/>
+      <c r="BK468" s="47"/>
+      <c r="BL468" s="47"/>
+      <c r="BM468" s="47"/>
+      <c r="BN468" s="47"/>
+      <c r="BO468" s="47"/>
+      <c r="BP468" s="47"/>
+      <c r="BQ468" s="47"/>
+      <c r="BR468" s="47"/>
+      <c r="BV468" s="44"/>
+      <c r="BW468" s="44"/>
+      <c r="BX468" s="44"/>
+      <c r="BY468" s="44"/>
+      <c r="BZ468" s="44"/>
+      <c r="CA468" s="44"/>
+      <c r="CB468" s="44"/>
+      <c r="CC468" s="44"/>
+      <c r="CD468" s="44"/>
+      <c r="CE468" s="44"/>
+      <c r="CF468" s="44"/>
+      <c r="CG468" s="44"/>
+      <c r="CH468" s="44"/>
+      <c r="CI468" s="44"/>
+      <c r="CJ468" s="44"/>
+      <c r="CK468" s="44"/>
+      <c r="CL468" s="44"/>
+      <c r="CM468" s="44"/>
+      <c r="CN468" s="44"/>
+      <c r="CO468" s="44"/>
+      <c r="CP468" s="44"/>
+      <c r="CQ468" s="44"/>
+      <c r="CR468" s="44"/>
+      <c r="CS468" s="56" t="s">
+        <v>388</v>
+      </c>
+      <c r="CT468" s="45"/>
+      <c r="CU468" s="44"/>
+      <c r="CV468" s="44"/>
+      <c r="CW468" s="44"/>
+      <c r="CX468" s="44"/>
+      <c r="CY468" s="44"/>
+      <c r="CZ468" s="44"/>
+      <c r="DA468" s="44"/>
+      <c r="DB468" s="44"/>
+      <c r="DC468" s="44"/>
+      <c r="DD468" s="44"/>
+      <c r="DE468" s="44"/>
+      <c r="DF468" s="44"/>
+      <c r="DG468" s="44"/>
+      <c r="DH468" s="53"/>
+      <c r="DI468" s="44"/>
+      <c r="DJ468" s="54" t="s">
+        <v>309</v>
+      </c>
+      <c r="DK468" s="44"/>
+      <c r="DL468" s="44"/>
+      <c r="DM468" s="43"/>
+    </row>
+    <row r="469" spans="37:117" ht="182">
+      <c r="AK469" s="52"/>
+      <c r="AL469" s="46"/>
+      <c r="AM469" s="47" t="s">
+        <v>193</v>
+      </c>
+      <c r="AN469" s="47" t="s">
+        <v>239</v>
+      </c>
+      <c r="AO469" s="47" t="s">
+        <v>236</v>
+      </c>
+      <c r="AP469" s="47"/>
+      <c r="AQ469" s="47"/>
+      <c r="AR469" s="47"/>
+      <c r="AS469" s="47"/>
+      <c r="AT469" s="47"/>
+      <c r="AU469" s="47"/>
+      <c r="AV469" s="47"/>
+      <c r="AW469" s="47"/>
+      <c r="AX469" s="47"/>
+      <c r="AY469" s="47"/>
+      <c r="AZ469" s="47"/>
+      <c r="BA469" s="47"/>
+      <c r="BB469" s="47"/>
+      <c r="BC469" s="47" t="s">
+        <v>237</v>
+      </c>
+      <c r="BD469" s="47"/>
+      <c r="BE469" s="47"/>
+      <c r="BF469" s="47"/>
+      <c r="BG469" s="47"/>
+      <c r="BH469" s="47"/>
+      <c r="BI469" s="47"/>
+      <c r="BJ469" s="47"/>
+      <c r="BK469" s="47"/>
+      <c r="BL469" s="47"/>
+      <c r="BM469" s="47"/>
+      <c r="BN469" s="47"/>
+      <c r="BO469" s="47"/>
+      <c r="BP469" s="47" t="s">
+        <v>239</v>
+      </c>
+      <c r="BQ469" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="BR469" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU469" s="56" t="s">
+        <v>387</v>
+      </c>
+      <c r="BV469" s="45"/>
+      <c r="BW469" s="44"/>
+      <c r="BX469" s="44"/>
+      <c r="BY469" s="44"/>
+      <c r="BZ469" s="44"/>
+      <c r="CA469" s="44"/>
+      <c r="CB469" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="CC469" s="44"/>
+      <c r="CD469" s="44"/>
+      <c r="CE469" s="44"/>
+      <c r="CF469" s="44" t="s">
+        <v>114</v>
+      </c>
+      <c r="CG469" s="44"/>
+      <c r="CH469" s="44"/>
+      <c r="CI469" s="44"/>
+      <c r="CJ469" s="44"/>
+      <c r="CK469" s="44" t="s">
+        <v>136</v>
+      </c>
+      <c r="CL469" s="44"/>
+      <c r="CM469" s="44" t="s">
+        <v>258</v>
+      </c>
+      <c r="CN469" s="44" t="s">
+        <v>258</v>
+      </c>
+      <c r="CO469" s="54" t="s">
+        <v>258</v>
+      </c>
+      <c r="CP469" s="44"/>
+      <c r="CQ469" s="44"/>
+      <c r="CR469" s="44"/>
+      <c r="CS469" s="56"/>
+      <c r="CT469" s="45"/>
+      <c r="CU469" s="44" t="s">
+        <v>274</v>
+      </c>
+      <c r="CV469" s="44"/>
+      <c r="CW469" s="44" t="s">
+        <v>154</v>
+      </c>
+      <c r="CX469" s="44"/>
+      <c r="CY469" s="44"/>
+      <c r="CZ469" s="44" t="s">
+        <v>168</v>
+      </c>
+      <c r="DA469" s="44"/>
+      <c r="DB469" s="44"/>
+      <c r="DC469" s="55" t="s">
+        <v>288</v>
+      </c>
+      <c r="DD469" s="44"/>
+      <c r="DE469" s="44"/>
+      <c r="DF469" s="44"/>
+      <c r="DG469" s="44"/>
+      <c r="DH469" s="53"/>
+      <c r="DI469" s="44"/>
+      <c r="DJ469" s="54" t="s">
+        <v>308</v>
+      </c>
+      <c r="DK469" s="44"/>
+      <c r="DL469" s="44"/>
+      <c r="DM469" s="43"/>
+    </row>
+    <row r="470" spans="37:117" ht="178">
+      <c r="AK470" s="52"/>
+      <c r="AL470" s="46"/>
+      <c r="AM470" s="48" t="s">
+        <v>191</v>
+      </c>
+      <c r="AN470" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="AO470" s="47" t="s">
+        <v>252</v>
+      </c>
+      <c r="AP470" s="47"/>
+      <c r="AQ470" s="47"/>
+      <c r="AR470" s="47"/>
+      <c r="AS470" s="47"/>
+      <c r="AT470" s="47"/>
+      <c r="AU470" s="47"/>
+      <c r="AV470" s="47" t="s">
+        <v>211</v>
+      </c>
+      <c r="AW470" s="47"/>
+      <c r="AX470" s="47"/>
+      <c r="AY470" s="47"/>
+      <c r="AZ470" s="47"/>
+      <c r="BA470" s="47"/>
+      <c r="BB470" s="47"/>
+      <c r="BC470" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="BD470" s="47"/>
+      <c r="BE470" s="47"/>
+      <c r="BF470" s="47"/>
+      <c r="BG470" s="47"/>
+      <c r="BH470" s="47"/>
+      <c r="BI470" s="47" t="s">
+        <v>235</v>
+      </c>
+      <c r="BJ470" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="BK470" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="BL470" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="BM470" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="BN470" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="BO470" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="BP470" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="BQ470" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="BR470" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="BU470" s="56"/>
+      <c r="BV470" s="45"/>
+      <c r="BW470" s="44" t="s">
+        <v>75</v>
+      </c>
+      <c r="BX470" s="44" t="s">
+        <v>268</v>
+      </c>
+      <c r="BY470" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="BZ470" s="44" t="s">
+        <v>85</v>
+      </c>
+      <c r="CA470" s="44"/>
+      <c r="CB470" s="44" t="s">
+        <v>93</v>
+      </c>
+      <c r="CC470" s="44"/>
+      <c r="CD470" s="44" t="s">
+        <v>103</v>
+      </c>
+      <c r="CE470" s="44" t="s">
+        <v>108</v>
+      </c>
+      <c r="CF470" s="44" t="s">
+        <v>113</v>
+      </c>
+      <c r="CG470" s="44" t="s">
+        <v>118</v>
+      </c>
+      <c r="CH470" s="44"/>
+      <c r="CI470" s="44" t="s">
+        <v>127</v>
+      </c>
+      <c r="CJ470" s="44" t="s">
+        <v>131</v>
+      </c>
+      <c r="CK470" s="44" t="s">
+        <v>135</v>
+      </c>
+      <c r="CL470" s="44"/>
+      <c r="CM470" s="44" t="s">
+        <v>257</v>
+      </c>
+      <c r="CN470" s="44" t="s">
+        <v>257</v>
+      </c>
+      <c r="CO470" s="54" t="s">
+        <v>312</v>
+      </c>
+      <c r="CP470" s="44" t="s">
+        <v>250</v>
+      </c>
+      <c r="CQ470" s="44"/>
+      <c r="CR470" s="44"/>
+      <c r="CS470" s="56"/>
+      <c r="CT470" s="45"/>
+      <c r="CU470" s="44" t="s">
+        <v>273</v>
+      </c>
+      <c r="CV470" s="44"/>
+      <c r="CW470" s="44" t="s">
+        <v>153</v>
+      </c>
+      <c r="CX470" s="44" t="s">
+        <v>158</v>
+      </c>
+      <c r="CY470" s="44" t="s">
+        <v>162</v>
+      </c>
+      <c r="CZ470" s="44" t="s">
+        <v>167</v>
+      </c>
+      <c r="DA470" s="44" t="s">
+        <v>279</v>
+      </c>
+      <c r="DB470" s="44" t="s">
+        <v>174</v>
+      </c>
+      <c r="DC470" s="44" t="s">
+        <v>287</v>
+      </c>
+      <c r="DD470" s="53" t="s">
+        <v>290</v>
+      </c>
+      <c r="DE470" s="55" t="s">
+        <v>295</v>
+      </c>
+      <c r="DF470" s="53" t="s">
+        <v>299</v>
+      </c>
+      <c r="DG470" s="44"/>
+      <c r="DH470" s="53" t="s">
+        <v>141</v>
+      </c>
+      <c r="DI470" s="55" t="s">
+        <v>306</v>
+      </c>
+      <c r="DJ470" s="54" t="s">
+        <v>307</v>
+      </c>
+      <c r="DK470" s="44" t="s">
+        <v>188</v>
+      </c>
+      <c r="DL470" s="44" t="s">
+        <v>225</v>
+      </c>
+      <c r="DM470" s="43"/>
+    </row>
+    <row r="471" spans="37:117" ht="192">
+      <c r="AK471" s="52"/>
+      <c r="AL471" s="46"/>
+      <c r="AM471" s="48" t="s">
+        <v>189</v>
+      </c>
+      <c r="AN471" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="AO471" s="47" t="s">
+        <v>251</v>
+      </c>
+      <c r="AP471" s="47"/>
+      <c r="AQ471" s="47"/>
+      <c r="AR471" s="47" t="s">
+        <v>197</v>
+      </c>
+      <c r="AS471" s="47" t="s">
+        <v>197</v>
+      </c>
+      <c r="AT471" s="47" t="s">
+        <v>197</v>
+      </c>
+      <c r="AU471" s="47" t="s">
+        <v>197</v>
+      </c>
+      <c r="AV471" s="47" t="s">
+        <v>210</v>
+      </c>
+      <c r="AW471" s="47" t="s">
+        <v>242</v>
+      </c>
+      <c r="AX471" s="47"/>
+      <c r="AY471" s="47" t="s">
+        <v>220</v>
+      </c>
+      <c r="AZ471" s="47"/>
+      <c r="BA471" s="47"/>
+      <c r="BB471" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="BC471" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="BD471" s="47"/>
+      <c r="BE471" s="47" t="s">
+        <v>231</v>
+      </c>
+      <c r="BF471" s="47"/>
+      <c r="BG471" s="47"/>
+      <c r="BH471" s="47" t="s">
+        <v>25</v>
+      </c>
+      <c r="BI471" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="BJ471" s="47" t="s">
+        <v>33</v>
+      </c>
+      <c r="BK471" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="BL471" s="47" t="s">
+        <v>43</v>
+      </c>
+      <c r="BM471" s="47" t="s">
+        <v>48</v>
+      </c>
+      <c r="BN471" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="BO471" s="47" t="s">
+        <v>58</v>
+      </c>
+      <c r="BP471" s="49" t="s">
+        <v>261</v>
+      </c>
+      <c r="BQ471" s="47" t="s">
+        <v>64</v>
+      </c>
+      <c r="BR471" s="47" t="s">
+        <v>69</v>
+      </c>
+      <c r="BU471" s="56"/>
+      <c r="BV471" s="45"/>
+      <c r="BW471" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX471" s="44" t="s">
+        <v>267</v>
+      </c>
+      <c r="BY471" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="BZ471" s="44" t="s">
+        <v>84</v>
+      </c>
+      <c r="CA471" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="CB471" s="44" t="s">
+        <v>270</v>
+      </c>
+      <c r="CC471" s="44" t="s">
+        <v>98</v>
+      </c>
+      <c r="CD471" s="44" t="s">
+        <v>102</v>
+      </c>
+      <c r="CE471" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="CF471" s="44" t="s">
+        <v>112</v>
+      </c>
+      <c r="CG471" s="44" t="s">
+        <v>117</v>
+      </c>
+      <c r="CH471" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="CI471" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="CJ471" s="44" t="s">
+        <v>130</v>
+      </c>
+      <c r="CK471" s="44" t="s">
+        <v>134</v>
+      </c>
+      <c r="CL471" s="55" t="s">
+        <v>315</v>
+      </c>
+      <c r="CM471" s="44" t="s">
+        <v>256</v>
+      </c>
+      <c r="CN471" s="44" t="s">
+        <v>256</v>
+      </c>
+      <c r="CO471" s="54" t="s">
+        <v>311</v>
+      </c>
+      <c r="CP471" s="44" t="s">
+        <v>249</v>
+      </c>
+      <c r="CQ471" s="44"/>
+      <c r="CR471" s="44"/>
+      <c r="CS471" s="56"/>
+      <c r="CT471" s="45"/>
+      <c r="CU471" s="44" t="s">
+        <v>272</v>
+      </c>
+      <c r="CV471" s="44" t="s">
+        <v>148</v>
+      </c>
+      <c r="CW471" s="44" t="s">
+        <v>152</v>
+      </c>
+      <c r="CX471" s="44" t="s">
+        <v>157</v>
+      </c>
+      <c r="CY471" s="44" t="s">
+        <v>161</v>
+      </c>
+      <c r="CZ471" s="44" t="s">
+        <v>166</v>
+      </c>
+      <c r="DA471" s="44" t="s">
+        <v>278</v>
+      </c>
+      <c r="DB471" s="44" t="s">
+        <v>173</v>
+      </c>
+      <c r="DC471" s="44" t="s">
+        <v>286</v>
+      </c>
+      <c r="DD471" s="53" t="s">
+        <v>289</v>
+      </c>
+      <c r="DE471" s="55" t="s">
+        <v>294</v>
+      </c>
+      <c r="DF471" s="54" t="s">
+        <v>298</v>
+      </c>
+      <c r="DG471" s="44" t="s">
+        <v>302</v>
+      </c>
+      <c r="DH471" s="53" t="s">
+        <v>140</v>
+      </c>
+      <c r="DI471" s="53" t="s">
+        <v>304</v>
+      </c>
+      <c r="DJ471" s="44" t="s">
+        <v>183</v>
+      </c>
+      <c r="DK471" s="44" t="s">
+        <v>187</v>
+      </c>
+      <c r="DL471" s="44" t="s">
+        <v>224</v>
+      </c>
+      <c r="DM471" s="43"/>
+    </row>
+    <row r="472" spans="37:117" ht="187">
+      <c r="AK472" s="52"/>
+      <c r="AL472" s="46"/>
+      <c r="AM472" s="47" t="s">
+        <v>190</v>
+      </c>
+      <c r="AN472" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="AO472" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="AP472" s="47" t="s">
+        <v>234</v>
+      </c>
+      <c r="AQ472" s="47" t="s">
+        <v>245</v>
+      </c>
+      <c r="AR472" s="47" t="s">
+        <v>196</v>
+      </c>
+      <c r="AS472" s="47" t="s">
+        <v>200</v>
+      </c>
+      <c r="AT472" s="47" t="s">
+        <v>203</v>
+      </c>
+      <c r="AU472" s="47" t="s">
+        <v>206</v>
+      </c>
+      <c r="AV472" s="47" t="s">
+        <v>209</v>
+      </c>
+      <c r="AW472" s="47" t="s">
+        <v>214</v>
+      </c>
+      <c r="AX472" s="47" t="s">
+        <v>203</v>
+      </c>
+      <c r="AY472" s="47" t="s">
+        <v>219</v>
+      </c>
+      <c r="AZ472" s="47" t="s">
+        <v>203</v>
+      </c>
+      <c r="BA472" s="47" t="s">
+        <v>203</v>
+      </c>
+      <c r="BB472" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="BC472" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="BD472" s="47" t="s">
+        <v>203</v>
+      </c>
+      <c r="BE472" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="BF472" s="49" t="s">
+        <v>203</v>
+      </c>
+      <c r="BG472" s="47" t="s">
+        <v>229</v>
+      </c>
+      <c r="BH472" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="BI472" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="BJ472" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="BK472" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="BL472" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="BM472" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="BN472" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="BO472" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="BP472" s="49" t="s">
+        <v>260</v>
+      </c>
+      <c r="BQ472" s="47" t="s">
+        <v>63</v>
+      </c>
+      <c r="BR472" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="BU472" s="56"/>
+      <c r="BV472" s="45"/>
+      <c r="BW472" s="44" t="s">
+        <v>73</v>
+      </c>
+      <c r="BX472" s="44" t="s">
+        <v>266</v>
+      </c>
+      <c r="BY472" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="BZ472" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="CA472" s="44" t="s">
+        <v>88</v>
+      </c>
+      <c r="CB472" s="44" t="s">
+        <v>92</v>
+      </c>
+      <c r="CC472" s="44" t="s">
+        <v>97</v>
+      </c>
+      <c r="CD472" s="44" t="s">
+        <v>101</v>
+      </c>
+      <c r="CE472" s="44" t="s">
+        <v>106</v>
+      </c>
+      <c r="CF472" s="44" t="s">
+        <v>111</v>
+      </c>
+      <c r="CG472" s="44" t="s">
+        <v>116</v>
+      </c>
+      <c r="CH472" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="CI472" s="44" t="s">
+        <v>125</v>
+      </c>
+      <c r="CJ472" s="44" t="s">
+        <v>129</v>
+      </c>
+      <c r="CK472" s="44" t="s">
+        <v>133</v>
+      </c>
+      <c r="CL472" s="55" t="s">
+        <v>314</v>
+      </c>
+      <c r="CM472" s="44" t="s">
+        <v>255</v>
+      </c>
+      <c r="CN472" s="44" t="s">
+        <v>255</v>
+      </c>
+      <c r="CO472" s="54" t="s">
+        <v>182</v>
+      </c>
+      <c r="CP472" s="44" t="s">
+        <v>248</v>
+      </c>
+      <c r="CQ472" s="44"/>
+      <c r="CR472" s="44"/>
+      <c r="CS472" s="56"/>
+      <c r="CT472" s="45"/>
+      <c r="CU472" s="44" t="s">
+        <v>271</v>
+      </c>
+      <c r="CV472" s="44" t="s">
+        <v>147</v>
+      </c>
+      <c r="CW472" s="44" t="s">
+        <v>151</v>
+      </c>
+      <c r="CX472" s="44" t="s">
+        <v>156</v>
+      </c>
+      <c r="CY472" s="44" t="s">
+        <v>160</v>
+      </c>
+      <c r="CZ472" s="44" t="s">
+        <v>165</v>
+      </c>
+      <c r="DA472" s="44" t="s">
+        <v>277</v>
+      </c>
+      <c r="DB472" s="44" t="s">
+        <v>172</v>
+      </c>
+      <c r="DC472" s="44" t="s">
+        <v>285</v>
+      </c>
+      <c r="DD472" s="53" t="s">
+        <v>291</v>
+      </c>
+      <c r="DE472" s="55" t="s">
+        <v>293</v>
+      </c>
+      <c r="DF472" s="54" t="s">
+        <v>297</v>
+      </c>
+      <c r="DG472" s="44" t="s">
+        <v>301</v>
+      </c>
+      <c r="DH472" s="53" t="s">
+        <v>139</v>
+      </c>
+      <c r="DI472" s="53" t="s">
+        <v>303</v>
+      </c>
+      <c r="DJ472" s="44" t="s">
+        <v>182</v>
+      </c>
+      <c r="DK472" s="44" t="s">
+        <v>186</v>
+      </c>
+      <c r="DL472" s="44" t="s">
+        <v>223</v>
+      </c>
+      <c r="DM472" s="43"/>
+    </row>
+    <row r="473" spans="37:117" ht="190">
+      <c r="AK473" s="52"/>
+      <c r="AL473" s="46"/>
+      <c r="AM473" s="47" t="s">
+        <v>192</v>
+      </c>
+      <c r="AN473" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="AO473" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP473" s="47" t="s">
+        <v>233</v>
+      </c>
+      <c r="AQ473" s="47" t="s">
+        <v>244</v>
+      </c>
+      <c r="AR473" s="47" t="s">
+        <v>195</v>
+      </c>
+      <c r="AS473" s="47" t="s">
+        <v>199</v>
+      </c>
+      <c r="AT473" s="47" t="s">
+        <v>202</v>
+      </c>
+      <c r="AU473" s="47" t="s">
+        <v>205</v>
+      </c>
+      <c r="AV473" s="47" t="s">
+        <v>208</v>
+      </c>
+      <c r="AW473" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="AX473" s="47" t="s">
+        <v>202</v>
+      </c>
+      <c r="AY473" s="47" t="s">
+        <v>218</v>
+      </c>
+      <c r="AZ473" s="47" t="s">
+        <v>202</v>
+      </c>
+      <c r="BA473" s="47" t="s">
+        <v>202</v>
+      </c>
+      <c r="BB473" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="BC473" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="BD473" s="47" t="s">
+        <v>202</v>
+      </c>
+      <c r="BE473" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="BF473" s="49" t="s">
+        <v>202</v>
+      </c>
+      <c r="BG473" s="47" t="s">
+        <v>228</v>
+      </c>
+      <c r="BH473" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="BI473" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="BJ473" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="BK473" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="BL473" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="BM473" s="47" t="s">
+        <v>46</v>
+      </c>
+      <c r="BN473" s="47" t="s">
+        <v>51</v>
+      </c>
+      <c r="BO473" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="BP473" s="47" t="s">
+        <v>262</v>
+      </c>
+      <c r="BQ473" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="BR473" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="BU473" s="56"/>
+      <c r="BV473" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="BW473" s="53" t="s">
+        <v>269</v>
+      </c>
+      <c r="BX473" s="53" t="s">
+        <v>265</v>
+      </c>
+      <c r="BY473" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="BZ473" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="CA473" s="53" t="s">
+        <v>87</v>
+      </c>
+      <c r="CB473" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="CC473" s="53" t="s">
+        <v>96</v>
+      </c>
+      <c r="CD473" s="53" t="s">
+        <v>100</v>
+      </c>
+      <c r="CE473" s="53" t="s">
+        <v>105</v>
+      </c>
+      <c r="CF473" s="53" t="s">
+        <v>110</v>
+      </c>
+      <c r="CG473" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="CH473" s="53" t="s">
+        <v>120</v>
+      </c>
+      <c r="CI473" s="53" t="s">
+        <v>124</v>
+      </c>
+      <c r="CJ473" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="CK473" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="CL473" s="55" t="s">
+        <v>313</v>
+      </c>
+      <c r="CM473" s="54" t="s">
+        <v>155</v>
+      </c>
+      <c r="CN473" s="54" t="s">
+        <v>155</v>
+      </c>
+      <c r="CO473" s="54" t="s">
+        <v>310</v>
+      </c>
+      <c r="CP473" s="53" t="s">
+        <v>247</v>
+      </c>
+      <c r="CQ473" s="44"/>
+      <c r="CR473" s="44"/>
+      <c r="CS473" s="56"/>
+      <c r="CT473" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="CU473" s="53" t="s">
+        <v>144</v>
+      </c>
+      <c r="CV473" s="44" t="s">
+        <v>146</v>
+      </c>
+      <c r="CW473" s="44" t="s">
+        <v>150</v>
+      </c>
+      <c r="CX473" s="44" t="s">
+        <v>155</v>
+      </c>
+      <c r="CY473" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="CZ473" s="44" t="s">
+        <v>164</v>
+      </c>
+      <c r="DA473" s="44" t="s">
+        <v>276</v>
+      </c>
+      <c r="DB473" s="44" t="s">
+        <v>171</v>
+      </c>
+      <c r="DC473" s="44" t="s">
+        <v>280</v>
+      </c>
+      <c r="DD473" s="53" t="s">
+        <v>177</v>
+      </c>
+      <c r="DE473" s="55" t="s">
+        <v>292</v>
+      </c>
+      <c r="DF473" s="54" t="s">
+        <v>296</v>
+      </c>
+      <c r="DG473" s="44" t="s">
+        <v>300</v>
+      </c>
+      <c r="DH473" s="53" t="s">
+        <v>138</v>
+      </c>
+      <c r="DI473" s="53" t="s">
+        <v>305</v>
+      </c>
+      <c r="DJ473" s="53" t="s">
+        <v>181</v>
+      </c>
+      <c r="DK473" s="53" t="s">
+        <v>185</v>
+      </c>
+      <c r="DL473" s="53" t="s">
+        <v>222</v>
+      </c>
+      <c r="DM473" s="43"/>
+    </row>
+    <row r="474" spans="37:117" ht="129">
+      <c r="AK474" s="52"/>
+      <c r="AL474" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM474" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN474" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO474" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP474" s="47" t="s">
+        <v>232</v>
+      </c>
+      <c r="AQ474" s="47" t="s">
+        <v>243</v>
+      </c>
+      <c r="AR474" s="47" t="s">
+        <v>194</v>
+      </c>
+      <c r="AS474" s="47" t="s">
+        <v>198</v>
+      </c>
+      <c r="AT474" s="47" t="s">
+        <v>201</v>
+      </c>
+      <c r="AU474" s="47" t="s">
+        <v>204</v>
+      </c>
+      <c r="AV474" s="47" t="s">
+        <v>207</v>
+      </c>
+      <c r="AW474" s="47" t="s">
+        <v>212</v>
+      </c>
+      <c r="AX474" s="47" t="s">
+        <v>215</v>
+      </c>
+      <c r="AY474" s="47" t="s">
+        <v>226</v>
+      </c>
+      <c r="AZ474" s="47" t="s">
+        <v>221</v>
+      </c>
+      <c r="BA474" s="47" t="s">
+        <v>216</v>
+      </c>
+      <c r="BB474" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="BC474" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="BD474" s="47" t="s">
+        <v>217</v>
+      </c>
+      <c r="BE474" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="BF474" s="47" t="s">
+        <v>316</v>
+      </c>
+      <c r="BG474" s="47" t="s">
+        <v>227</v>
+      </c>
+      <c r="BH474" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="BI474" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="BJ474" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="BK474" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="BL474" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="BM474" s="47" t="s">
+        <v>45</v>
+      </c>
+      <c r="BN474" s="47" t="s">
+        <v>50</v>
+      </c>
+      <c r="BO474" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="BP474" s="47" t="s">
+        <v>60</v>
+      </c>
+      <c r="BQ474" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="BR474" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="BU474" s="56"/>
+      <c r="BV474" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="BW474" s="53" t="s">
+        <v>263</v>
+      </c>
+      <c r="BX474" s="53" t="s">
+        <v>264</v>
+      </c>
+      <c r="BY474" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ474" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="CA474" s="53" t="s">
+        <v>86</v>
+      </c>
+      <c r="CB474" s="53" t="s">
+        <v>90</v>
+      </c>
+      <c r="CC474" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="CD474" s="53" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE474" s="53" t="s">
+        <v>104</v>
+      </c>
+      <c r="CF474" s="53" t="s">
+        <v>109</v>
+      </c>
+      <c r="CG474" s="53" t="s">
+        <v>115</v>
+      </c>
+      <c r="CH474" s="53" t="s">
+        <v>119</v>
+      </c>
+      <c r="CI474" s="53" t="s">
+        <v>123</v>
+      </c>
+      <c r="CJ474" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="CK474" s="53" t="s">
+        <v>132</v>
+      </c>
+      <c r="CL474" s="53" t="s">
+        <v>283</v>
+      </c>
+      <c r="CM474" s="53" t="s">
+        <v>253</v>
+      </c>
+      <c r="CN474" s="53" t="s">
+        <v>254</v>
+      </c>
+      <c r="CO474" s="53" t="s">
+        <v>284</v>
+      </c>
+      <c r="CP474" s="53" t="s">
+        <v>246</v>
+      </c>
+      <c r="CQ474" s="44"/>
+      <c r="CR474" s="44"/>
+      <c r="CS474" s="56"/>
+      <c r="CT474" s="45" t="s">
+        <v>142</v>
+      </c>
+      <c r="CU474" s="53" t="s">
+        <v>143</v>
+      </c>
+      <c r="CV474" s="53" t="s">
+        <v>145</v>
+      </c>
+      <c r="CW474" s="53" t="s">
+        <v>149</v>
+      </c>
+      <c r="CX474" s="53" t="s">
+        <v>275</v>
+      </c>
+      <c r="CY474" s="53" t="s">
+        <v>159</v>
+      </c>
+      <c r="CZ474" s="53" t="s">
+        <v>163</v>
+      </c>
+      <c r="DA474" s="53" t="s">
+        <v>169</v>
+      </c>
+      <c r="DB474" s="53" t="s">
+        <v>170</v>
+      </c>
+      <c r="DC474" s="53" t="s">
+        <v>175</v>
+      </c>
+      <c r="DD474" s="53" t="s">
+        <v>176</v>
+      </c>
+      <c r="DE474" s="53" t="s">
+        <v>178</v>
+      </c>
+      <c r="DF474" s="53" t="s">
+        <v>179</v>
+      </c>
+      <c r="DG474" s="53" t="s">
+        <v>281</v>
+      </c>
+      <c r="DH474" s="53" t="s">
+        <v>137</v>
+      </c>
+      <c r="DI474" s="53" t="s">
+        <v>282</v>
+      </c>
+      <c r="DJ474" s="53" t="s">
+        <v>180</v>
+      </c>
+      <c r="DK474" s="53" t="s">
+        <v>184</v>
+      </c>
+      <c r="DL474" s="53" t="s">
+        <v>259</v>
+      </c>
+      <c r="DM474" s="43"/>
+    </row>
+    <row r="475" spans="37:117">
+      <c r="BV475" s="3"/>
+      <c r="CT475" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="AL467:AL473"/>
+    <mergeCell ref="AK467:AK474"/>
+    <mergeCell ref="BU469:BU474"/>
+    <mergeCell ref="CS468:CS474"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
